--- a/data/FinancialData/FinancialDataElements/PersonalIncome/Personal Income 2019.xlsx
+++ b/data/FinancialData/FinancialDataElements/PersonalIncome/Personal Income 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheimbach\Desktop\Web Dump\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlynch/cs320/dbms_proj/data/FinancialData/FinancialDataElements/PersonalIncome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B1D125-8741-4EDE-9903-68B547C1CBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4211D0-5C07-4940-8A91-B418F6AB86B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="7060" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Income 2019" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="datamay26" type="6" refreshedVersion="1" background="1" saveData="1">
-    <textPr codePage="28603" sourceFile="H:\shbrady C drive\ACT 80\datamay26.txt" delimited="0">
+    <textPr sourceFile="H:\shbrady C drive\ACT 80\datamay26.txt" delimited="0">
       <textFields count="10">
         <textField/>
         <textField position="5"/>
@@ -1799,8 +1799,7 @@
   <si>
     <t>Adjusted
 Personal
-Income
-July 2021</t>
+Income</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1869,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1884,17 +1883,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,9 +1921,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1963,9 +1961,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1998,26 +1996,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2050,26 +2031,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2249,25 +2213,25 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2308,7 +2272,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>112011103</v>
       </c>
@@ -2339,7 +2303,7 @@
       <c r="J2" s="9">
         <v>102744</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>3346710</v>
       </c>
       <c r="L2" s="9">
@@ -2349,7 +2313,7 @@
         <v>383403645</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>112011603</v>
       </c>
@@ -2380,7 +2344,7 @@
       <c r="J3" s="9">
         <v>290484</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>9462020</v>
       </c>
       <c r="L3" s="9">
@@ -2390,7 +2354,7 @@
         <v>770090412</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>112013054</v>
       </c>
@@ -2421,7 +2385,7 @@
       <c r="J4" s="9">
         <v>135325</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>4407980</v>
       </c>
       <c r="L4" s="9">
@@ -2431,7 +2395,7 @@
         <v>247859515</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>112013753</v>
       </c>
@@ -2462,7 +2426,7 @@
       <c r="J5" s="9">
         <v>777535</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>25326873</v>
       </c>
       <c r="L5" s="9">
@@ -2472,7 +2436,7 @@
         <v>744336548</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>112015203</v>
       </c>
@@ -2503,7 +2467,7 @@
       <c r="J6" s="9">
         <v>185886</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>6054919</v>
       </c>
       <c r="L6" s="9">
@@ -2513,7 +2477,7 @@
         <v>430266430</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>112018523</v>
       </c>
@@ -2544,7 +2508,7 @@
       <c r="J7" s="9">
         <v>61555</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>2005049</v>
       </c>
       <c r="L7" s="9">
@@ -2554,7 +2518,7 @@
         <v>290917238</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>103020603</v>
       </c>
@@ -2585,7 +2549,7 @@
       <c r="J8" s="9">
         <v>325494</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>10602410</v>
       </c>
       <c r="L8" s="9">
@@ -2595,7 +2559,7 @@
         <v>349711781</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>103020753</v>
       </c>
@@ -2626,7 +2590,7 @@
       <c r="J9" s="9">
         <v>495841</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>16151173</v>
       </c>
       <c r="L9" s="9">
@@ -2636,7 +2600,7 @@
         <v>673435532</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>103021102</v>
       </c>
@@ -2667,7 +2631,7 @@
       <c r="J10" s="9">
         <v>137576</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>4481303</v>
       </c>
       <c r="L10" s="9">
@@ -2677,7 +2641,7 @@
         <v>1064223309</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>103021252</v>
       </c>
@@ -2708,7 +2672,7 @@
       <c r="J11" s="9">
         <v>274651</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>8946287</v>
       </c>
       <c r="L11" s="9">
@@ -2718,7 +2682,7 @@
         <v>1209946889</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>103021453</v>
       </c>
@@ -2749,7 +2713,7 @@
       <c r="J12" s="9">
         <v>13723</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>447003</v>
       </c>
       <c r="L12" s="9">
@@ -2759,7 +2723,7 @@
         <v>245484918</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>103021603</v>
       </c>
@@ -2790,7 +2754,7 @@
       <c r="J13" s="9">
         <v>102584</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>3341498</v>
       </c>
       <c r="L13" s="9">
@@ -2800,7 +2764,7 @@
         <v>450946865</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>103021752</v>
       </c>
@@ -2831,7 +2795,7 @@
       <c r="J14" s="9">
         <v>548299</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>17859902</v>
       </c>
       <c r="L14" s="9">
@@ -2841,7 +2805,7 @@
         <v>1205635532</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>103021903</v>
       </c>
@@ -2872,7 +2836,7 @@
       <c r="J15" s="9">
         <v>1191</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>38795</v>
       </c>
       <c r="L15" s="9">
@@ -2882,7 +2846,7 @@
         <v>92389188</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>103022103</v>
       </c>
@@ -2913,7 +2877,7 @@
       <c r="J16" s="9">
         <v>20922</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>681498</v>
       </c>
       <c r="L16" s="9">
@@ -2923,7 +2887,7 @@
         <v>142788508</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>103022253</v>
       </c>
@@ -2954,7 +2918,7 @@
       <c r="J17" s="9">
         <v>53685</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>1748697</v>
       </c>
       <c r="L17" s="9">
@@ -2964,7 +2928,7 @@
         <v>427668425</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>103022503</v>
       </c>
@@ -2995,7 +2959,7 @@
       <c r="J18" s="9">
         <v>10654</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>347036</v>
       </c>
       <c r="L18" s="9">
@@ -3005,7 +2969,7 @@
         <v>56386372</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>103022803</v>
       </c>
@@ -3036,7 +3000,7 @@
       <c r="J19" s="9">
         <v>15569</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>507134</v>
       </c>
       <c r="L19" s="9">
@@ -3046,7 +3010,7 @@
         <v>265408576</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>103023153</v>
       </c>
@@ -3077,7 +3041,7 @@
       <c r="J20" s="9">
         <v>35738</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>1164104</v>
       </c>
       <c r="L20" s="9">
@@ -3087,7 +3051,7 @@
         <v>498462584</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>103023912</v>
       </c>
@@ -3118,7 +3082,7 @@
       <c r="J21" s="9">
         <v>2280117</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>74270912</v>
       </c>
       <c r="L21" s="9">
@@ -3128,7 +3092,7 @@
         <v>2228380525</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>103024102</v>
       </c>
@@ -3159,7 +3123,7 @@
       <c r="J22" s="9">
         <v>160268</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>5220456</v>
       </c>
       <c r="L22" s="9">
@@ -3169,7 +3133,7 @@
         <v>921096969</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>103024603</v>
       </c>
@@ -3200,7 +3164,7 @@
       <c r="J23" s="9">
         <v>355920</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>11593485</v>
       </c>
       <c r="L23" s="9">
@@ -3210,7 +3174,7 @@
         <v>966729511</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>103024753</v>
       </c>
@@ -3241,7 +3205,7 @@
       <c r="J24" s="9">
         <v>110054</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>3584821</v>
       </c>
       <c r="L24" s="9">
@@ -3251,7 +3215,7 @@
         <v>423735508</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>103025002</v>
       </c>
@@ -3282,7 +3246,7 @@
       <c r="J25" s="9">
         <v>77413</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>2521596</v>
       </c>
       <c r="L25" s="9">
@@ -3292,7 +3256,7 @@
         <v>654611493</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>103026002</v>
       </c>
@@ -3323,7 +3287,7 @@
       <c r="J26" s="9">
         <v>67276</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>2191401</v>
       </c>
       <c r="L26" s="9">
@@ -3333,7 +3297,7 @@
         <v>481567919</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>103026303</v>
       </c>
@@ -3364,7 +3328,7 @@
       <c r="J27" s="9">
         <v>289945</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>9444463</v>
       </c>
       <c r="L27" s="9">
@@ -3374,7 +3338,7 @@
         <v>1131057833</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>103026343</v>
       </c>
@@ -3405,7 +3369,7 @@
       <c r="J28" s="9">
         <v>497764</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>16213811</v>
       </c>
       <c r="L28" s="9">
@@ -3415,7 +3379,7 @@
         <v>1239568134</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>103026402</v>
       </c>
@@ -3446,7 +3410,7 @@
       <c r="J29" s="9">
         <v>1135769</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>36995733</v>
       </c>
       <c r="L29" s="9">
@@ -3456,7 +3420,7 @@
         <v>2102596014</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>103026852</v>
       </c>
@@ -3487,7 +3451,7 @@
       <c r="J30" s="9">
         <v>1748731</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>56961922</v>
       </c>
       <c r="L30" s="9">
@@ -3497,7 +3461,7 @@
         <v>3222719351</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>103026902</v>
       </c>
@@ -3528,7 +3492,7 @@
       <c r="J31" s="9">
         <v>247518</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>8062476</v>
       </c>
       <c r="L31" s="9">
@@ -3538,7 +3502,7 @@
         <v>1395222261</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>103026873</v>
       </c>
@@ -3569,7 +3533,7 @@
       <c r="J32" s="9">
         <v>20094</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>654528</v>
       </c>
       <c r="L32" s="9">
@@ -3579,7 +3543,7 @@
         <v>334517693</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>103027352</v>
       </c>
@@ -3610,7 +3574,7 @@
       <c r="J33" s="9">
         <v>43573</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>1419316</v>
       </c>
       <c r="L33" s="9">
@@ -3620,7 +3584,7 @@
         <v>841609002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>103021003</v>
       </c>
@@ -3651,7 +3615,7 @@
       <c r="J34" s="9">
         <v>1398134</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>45541824</v>
       </c>
       <c r="L34" s="9">
@@ -3661,7 +3625,7 @@
         <v>1897126494</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>102027451</v>
       </c>
@@ -3692,7 +3656,7 @@
       <c r="J35" s="9">
         <v>6364290</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>207305863</v>
       </c>
       <c r="L35" s="9">
@@ -3702,7 +3666,7 @@
         <v>9106200063</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>103027503</v>
       </c>
@@ -3733,7 +3697,7 @@
       <c r="J36" s="9">
         <v>79315</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>2583550</v>
       </c>
       <c r="L36" s="9">
@@ -3743,7 +3707,7 @@
         <v>873364315</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>103027753</v>
       </c>
@@ -3774,7 +3738,7 @@
       <c r="J37" s="9">
         <v>2162483</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>70439186</v>
       </c>
       <c r="L37" s="9">
@@ -3784,7 +3748,7 @@
         <v>1296638828</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>103028203</v>
       </c>
@@ -3815,7 +3779,7 @@
       <c r="J38" s="9">
         <v>158105</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>5150000</v>
       </c>
       <c r="L38" s="9">
@@ -3825,7 +3789,7 @@
         <v>375513634</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>103028302</v>
       </c>
@@ -3856,7 +3820,7 @@
       <c r="J39" s="9">
         <v>102641</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>3343355</v>
       </c>
       <c r="L39" s="9">
@@ -3866,7 +3830,7 @@
         <v>1179310919</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>103028653</v>
       </c>
@@ -3897,7 +3861,7 @@
       <c r="J40" s="9">
         <v>10238</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>333485</v>
       </c>
       <c r="L40" s="9">
@@ -3907,7 +3871,7 @@
         <v>216269372</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>103028703</v>
       </c>
@@ -3938,7 +3902,7 @@
       <c r="J41" s="9">
         <v>263021</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <v>8567459</v>
       </c>
       <c r="L41" s="9">
@@ -3948,7 +3912,7 @@
         <v>800333349</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>103028753</v>
       </c>
@@ -3979,7 +3943,7 @@
       <c r="J42" s="9">
         <v>51415</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <v>1674756</v>
       </c>
       <c r="L42" s="9">
@@ -3989,7 +3953,7 @@
         <v>453698858</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>103028833</v>
       </c>
@@ -4020,7 +3984,7 @@
       <c r="J43" s="9">
         <v>31635</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>1030456</v>
       </c>
       <c r="L43" s="9">
@@ -4030,7 +3994,7 @@
         <v>336454172</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>103028853</v>
       </c>
@@ -4061,7 +4025,7 @@
       <c r="J44" s="9">
         <v>9302</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <v>302997</v>
       </c>
       <c r="L44" s="9">
@@ -4071,7 +4035,7 @@
         <v>166634883</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>103029203</v>
       </c>
@@ -4102,7 +4066,7 @@
       <c r="J45" s="9">
         <v>2411434</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="9">
         <v>78548339</v>
       </c>
       <c r="L45" s="9">
@@ -4112,7 +4076,7 @@
         <v>1547668317</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>103029403</v>
       </c>
@@ -4143,7 +4107,7 @@
       <c r="J46" s="9">
         <v>173812</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>5661629</v>
       </c>
       <c r="L46" s="9">
@@ -4153,7 +4117,7 @@
         <v>850783525</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>103029553</v>
       </c>
@@ -4184,7 +4148,7 @@
       <c r="J47" s="9">
         <v>314369</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="9">
         <v>10240033</v>
       </c>
       <c r="L47" s="9">
@@ -4194,7 +4158,7 @@
         <v>769349746</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>103029603</v>
       </c>
@@ -4225,7 +4189,7 @@
       <c r="J48" s="9">
         <v>27722</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="9">
         <v>902997</v>
       </c>
       <c r="L48" s="9">
@@ -4235,7 +4199,7 @@
         <v>469433007</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>103029803</v>
       </c>
@@ -4266,7 +4230,7 @@
       <c r="J49" s="9">
         <v>113490</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="9">
         <v>3696743</v>
       </c>
       <c r="L49" s="9">
@@ -4276,7 +4240,7 @@
         <v>318868049</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>103029902</v>
       </c>
@@ -4307,7 +4271,7 @@
       <c r="J50" s="9">
         <v>293053</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <v>9545700</v>
       </c>
       <c r="L50" s="9">
@@ -4317,7 +4281,7 @@
         <v>1152132173</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>128030603</v>
       </c>
@@ -4348,7 +4312,7 @@
       <c r="J51" s="9">
         <v>12108</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>394397</v>
       </c>
       <c r="L51" s="9">
@@ -4358,7 +4322,7 @@
         <v>189457929</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>128030852</v>
       </c>
@@ -4389,7 +4353,7 @@
       <c r="J52" s="9">
         <v>134635</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>4385505</v>
       </c>
       <c r="L52" s="9">
@@ -4399,7 +4363,7 @@
         <v>920295798</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>128033053</v>
       </c>
@@ -4430,7 +4394,7 @@
       <c r="J53" s="9">
         <v>84356</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <v>2747752</v>
       </c>
       <c r="L53" s="9">
@@ -4440,7 +4404,7 @@
         <v>432231604</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>128034503</v>
       </c>
@@ -4471,7 +4435,7 @@
       <c r="J54" s="9">
         <v>4717</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="9">
         <v>153648</v>
       </c>
       <c r="L54" s="9">
@@ -4481,7 +4445,7 @@
         <v>130872158</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>127040503</v>
       </c>
@@ -4512,7 +4476,7 @@
       <c r="J55" s="9">
         <v>5010</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="9">
         <v>163192</v>
       </c>
       <c r="L55" s="9">
@@ -4522,7 +4486,7 @@
         <v>141930491</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>127040703</v>
       </c>
@@ -4553,7 +4517,7 @@
       <c r="J56" s="9">
         <v>70031</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="9">
         <v>2281140</v>
       </c>
       <c r="L56" s="9">
@@ -4563,7 +4527,7 @@
         <v>621138106</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>127041203</v>
       </c>
@@ -4594,7 +4558,7 @@
       <c r="J57" s="9">
         <v>127528</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="9">
         <v>4154007</v>
       </c>
       <c r="L57" s="9">
@@ -4604,7 +4568,7 @@
         <v>499785045</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>127041503</v>
       </c>
@@ -4635,7 +4599,7 @@
       <c r="J58" s="9">
         <v>16014</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="9">
         <v>521629</v>
       </c>
       <c r="L58" s="9">
@@ -4645,7 +4609,7 @@
         <v>219579178</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>127041603</v>
       </c>
@@ -4676,7 +4640,7 @@
       <c r="J59" s="9">
         <v>180428</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="9">
         <v>5877134</v>
       </c>
       <c r="L59" s="9">
@@ -4686,7 +4650,7 @@
         <v>526629178</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>127042003</v>
       </c>
@@ -4717,7 +4681,7 @@
       <c r="J60" s="9">
         <v>148481</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="9">
         <v>4836515</v>
       </c>
       <c r="L60" s="9">
@@ -4727,7 +4691,7 @@
         <v>530149873</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>127042853</v>
       </c>
@@ -4758,7 +4722,7 @@
       <c r="J61" s="9">
         <v>40242</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61" s="9">
         <v>1310814</v>
       </c>
       <c r="L61" s="9">
@@ -4768,7 +4732,7 @@
         <v>268744674</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>127044103</v>
       </c>
@@ -4799,7 +4763,7 @@
       <c r="J62" s="9">
         <v>43474</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="9">
         <v>1416091</v>
       </c>
       <c r="L62" s="9">
@@ -4809,7 +4773,7 @@
         <v>528573874</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>127045303</v>
       </c>
@@ -4840,7 +4804,7 @@
       <c r="J63" s="9">
         <v>3334</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="9">
         <v>108599</v>
       </c>
       <c r="L63" s="9">
@@ -4850,7 +4814,7 @@
         <v>43279685</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>127045653</v>
       </c>
@@ -4881,7 +4845,7 @@
       <c r="J64" s="9">
         <v>15058</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="9">
         <v>490489</v>
       </c>
       <c r="L64" s="9">
@@ -4891,7 +4855,7 @@
         <v>200972390</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>127045853</v>
       </c>
@@ -4922,7 +4886,7 @@
       <c r="J65" s="9">
         <v>39193</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="9">
         <v>1276645</v>
       </c>
       <c r="L65" s="9">
@@ -4932,7 +4896,7 @@
         <v>301898069</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>127046903</v>
       </c>
@@ -4963,7 +4927,7 @@
       <c r="J66" s="9">
         <v>21048</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="9">
         <v>685603</v>
       </c>
       <c r="L66" s="9">
@@ -4973,7 +4937,7 @@
         <v>136120571</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>127047404</v>
       </c>
@@ -5004,7 +4968,7 @@
       <c r="J67" s="9">
         <v>66002</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67" s="9">
         <v>2149902</v>
       </c>
       <c r="L67" s="9">
@@ -5014,7 +4978,7 @@
         <v>202131308</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>127049303</v>
       </c>
@@ -5045,7 +5009,7 @@
       <c r="J68" s="9">
         <v>3246</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="9">
         <v>105733</v>
       </c>
       <c r="L68" s="9">
@@ -5055,7 +5019,7 @@
         <v>133145438</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>108051003</v>
       </c>
@@ -5086,7 +5050,7 @@
       <c r="J69" s="9">
         <v>176733</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K69" s="9">
         <v>5756775</v>
       </c>
       <c r="L69" s="9">
@@ -5096,7 +5060,7 @@
         <v>382030263</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>108051503</v>
       </c>
@@ -5127,7 +5091,7 @@
       <c r="J70" s="9">
         <v>39701</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="9">
         <v>1293192</v>
       </c>
       <c r="L70" s="9">
@@ -5137,7 +5101,7 @@
         <v>211295188</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>108053003</v>
       </c>
@@ -5168,7 +5132,7 @@
       <c r="J71" s="9">
         <v>40576</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71" s="9">
         <v>1321694</v>
       </c>
       <c r="L71" s="9">
@@ -5178,7 +5142,7 @@
         <v>178464951</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>108056004</v>
       </c>
@@ -5209,7 +5173,7 @@
       <c r="J72" s="9">
         <v>27170</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="9">
         <v>885016</v>
       </c>
       <c r="L72" s="9">
@@ -5219,7 +5183,7 @@
         <v>144512408</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>108058003</v>
       </c>
@@ -5250,7 +5214,7 @@
       <c r="J73" s="9">
         <v>15726</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73" s="9">
         <v>512248</v>
       </c>
       <c r="L73" s="9">
@@ -5260,7 +5224,7 @@
         <v>120874139</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>114060503</v>
       </c>
@@ -5291,7 +5255,7 @@
       <c r="J74" s="9">
         <v>15156</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K74" s="9">
         <v>493681</v>
       </c>
       <c r="L74" s="9">
@@ -5301,7 +5265,7 @@
         <v>167495078</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>114060753</v>
       </c>
@@ -5332,7 +5296,7 @@
       <c r="J75" s="9">
         <v>923142</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K75" s="9">
         <v>30069772</v>
       </c>
       <c r="L75" s="9">
@@ -5342,7 +5306,7 @@
         <v>1781811866</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>114060853</v>
       </c>
@@ -5373,7 +5337,7 @@
       <c r="J76" s="9">
         <v>84185</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76" s="9">
         <v>2742182</v>
       </c>
       <c r="L76" s="9">
@@ -5383,7 +5347,7 @@
         <v>380455732</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>114061103</v>
       </c>
@@ -5414,7 +5378,7 @@
       <c r="J77" s="9">
         <v>121276</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K77" s="9">
         <v>3950358</v>
       </c>
       <c r="L77" s="9">
@@ -5424,7 +5388,7 @@
         <v>554035066</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>114061503</v>
       </c>
@@ -5455,7 +5419,7 @@
       <c r="J78" s="9">
         <v>226389</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78" s="9">
         <v>7374235</v>
       </c>
       <c r="L78" s="9">
@@ -5465,7 +5429,7 @@
         <v>771563271</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>114062003</v>
       </c>
@@ -5496,7 +5460,7 @@
       <c r="J79" s="9">
         <v>279760</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K79" s="9">
         <v>9112704</v>
       </c>
       <c r="L79" s="9">
@@ -5506,7 +5470,7 @@
         <v>870620574</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>114062503</v>
       </c>
@@ -5537,7 +5501,7 @@
       <c r="J80" s="9">
         <v>77733</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K80" s="9">
         <v>2532020</v>
       </c>
       <c r="L80" s="9">
@@ -5547,7 +5511,7 @@
         <v>508250986</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>114063003</v>
       </c>
@@ -5578,7 +5542,7 @@
       <c r="J81" s="9">
         <v>300291</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K81" s="9">
         <v>9781466</v>
       </c>
       <c r="L81" s="9">
@@ -5588,7 +5552,7 @@
         <v>1071269367</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>114063503</v>
       </c>
@@ -5619,7 +5583,7 @@
       <c r="J82" s="9">
         <v>89752</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K82" s="9">
         <v>2923518</v>
       </c>
       <c r="L82" s="9">
@@ -5629,7 +5593,7 @@
         <v>491496886</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="6">
         <v>114064003</v>
       </c>
@@ -5660,7 +5624,7 @@
       <c r="J83" s="9">
         <v>113702</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K83" s="9">
         <v>3703648</v>
       </c>
       <c r="L83" s="9">
@@ -5670,7 +5634,7 @@
         <v>410123456</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>114065503</v>
       </c>
@@ -5701,7 +5665,7 @@
       <c r="J84" s="9">
         <v>90064</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K84" s="9">
         <v>2933681</v>
       </c>
       <c r="L84" s="9">
@@ -5711,7 +5675,7 @@
         <v>607358318</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>114066503</v>
       </c>
@@ -5742,7 +5706,7 @@
       <c r="J85" s="9">
         <v>253858</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85" s="9">
         <v>8268990</v>
       </c>
       <c r="L85" s="9">
@@ -5752,7 +5716,7 @@
         <v>467594582</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>114067002</v>
       </c>
@@ -5783,7 +5747,7 @@
       <c r="J86" s="9">
         <v>250982</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K86" s="9">
         <v>8175309</v>
       </c>
       <c r="L86" s="9">
@@ -5793,7 +5757,7 @@
         <v>1161543292</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>114067503</v>
       </c>
@@ -5824,7 +5788,7 @@
       <c r="J87" s="9">
         <v>105753</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K87" s="9">
         <v>3444723</v>
       </c>
       <c r="L87" s="9">
@@ -5834,7 +5798,7 @@
         <v>488487040</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>114068003</v>
       </c>
@@ -5865,7 +5829,7 @@
       <c r="J88" s="9">
         <v>78600</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K88" s="9">
         <v>2560261</v>
       </c>
       <c r="L88" s="9">
@@ -5875,7 +5839,7 @@
         <v>350319767</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="6">
         <v>114068103</v>
       </c>
@@ -5906,7 +5870,7 @@
       <c r="J89" s="9">
         <v>354313</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K89" s="9">
         <v>11541140</v>
       </c>
       <c r="L89" s="9">
@@ -5916,7 +5880,7 @@
         <v>836963543</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="6">
         <v>114069103</v>
       </c>
@@ -5947,7 +5911,7 @@
       <c r="J90" s="9">
         <v>610588</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K90" s="9">
         <v>19888860</v>
       </c>
       <c r="L90" s="9">
@@ -5957,7 +5921,7 @@
         <v>1431976326</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="6">
         <v>114069353</v>
       </c>
@@ -5988,7 +5952,7 @@
       <c r="J91" s="9">
         <v>392853</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91" s="9">
         <v>12796515</v>
       </c>
       <c r="L91" s="9">
@@ -5998,7 +5962,7 @@
         <v>705164920</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="6">
         <v>108070502</v>
       </c>
@@ -6029,7 +5993,7 @@
       <c r="J92" s="9">
         <v>171511</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92" s="9">
         <v>5586678</v>
       </c>
       <c r="L92" s="9">
@@ -6039,7 +6003,7 @@
         <v>1109624459</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="6">
         <v>108071003</v>
       </c>
@@ -6070,7 +6034,7 @@
       <c r="J93" s="9">
         <v>48671</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93" s="9">
         <v>1585375</v>
       </c>
       <c r="L93" s="9">
@@ -6080,7 +6044,7 @@
         <v>206708731</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="6">
         <v>108071504</v>
       </c>
@@ -6111,7 +6075,7 @@
       <c r="J94" s="9">
         <v>31006</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K94" s="9">
         <v>1009967</v>
       </c>
       <c r="L94" s="9">
@@ -6121,7 +6085,7 @@
         <v>160614593</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="6">
         <v>108073503</v>
       </c>
@@ -6152,7 +6116,7 @@
       <c r="J95" s="9">
         <v>511058</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K95" s="9">
         <v>16646840</v>
       </c>
       <c r="L95" s="9">
@@ -6162,7 +6126,7 @@
         <v>911374312</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="6">
         <v>108077503</v>
       </c>
@@ -6193,7 +6157,7 @@
       <c r="J96" s="9">
         <v>38982</v>
       </c>
-      <c r="K96" s="10">
+      <c r="K96" s="9">
         <v>1269772</v>
       </c>
       <c r="L96" s="9">
@@ -6203,7 +6167,7 @@
         <v>309350904</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>108078003</v>
       </c>
@@ -6234,7 +6198,7 @@
       <c r="J97" s="9">
         <v>61070</v>
       </c>
-      <c r="K97" s="10">
+      <c r="K97" s="9">
         <v>1989251</v>
       </c>
       <c r="L97" s="9">
@@ -6244,7 +6208,7 @@
         <v>281319784</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>108079004</v>
       </c>
@@ -6275,7 +6239,7 @@
       <c r="J98" s="9">
         <v>7081</v>
       </c>
-      <c r="K98" s="10">
+      <c r="K98" s="9">
         <v>230651</v>
       </c>
       <c r="L98" s="9">
@@ -6285,7 +6249,7 @@
         <v>66382764</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="6">
         <v>117080503</v>
       </c>
@@ -6316,7 +6280,7 @@
       <c r="J99" s="9">
         <v>2036988</v>
       </c>
-      <c r="K99" s="10">
+      <c r="K99" s="9">
         <v>66351401</v>
       </c>
       <c r="L99" s="9">
@@ -6326,7 +6290,7 @@
         <v>286583974</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>117081003</v>
       </c>
@@ -6357,7 +6321,7 @@
       <c r="J100" s="9">
         <v>111429</v>
       </c>
-      <c r="K100" s="10">
+      <c r="K100" s="9">
         <v>3629609</v>
       </c>
       <c r="L100" s="9">
@@ -6367,7 +6331,7 @@
         <v>128465008</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="6">
         <v>117083004</v>
       </c>
@@ -6398,7 +6362,7 @@
       <c r="J101" s="9">
         <v>625815</v>
       </c>
-      <c r="K101" s="10">
+      <c r="K101" s="9">
         <v>20384853</v>
       </c>
       <c r="L101" s="9">
@@ -6408,7 +6372,7 @@
         <v>106344017</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>117086003</v>
       </c>
@@ -6439,7 +6403,7 @@
       <c r="J102" s="9">
         <v>1078191</v>
       </c>
-      <c r="K102" s="10">
+      <c r="K102" s="9">
         <v>35120228</v>
       </c>
       <c r="L102" s="9">
@@ -6449,7 +6413,7 @@
         <v>147676910</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>117086503</v>
       </c>
@@ -6480,7 +6444,7 @@
       <c r="J103" s="9">
         <v>390577</v>
       </c>
-      <c r="K103" s="10">
+      <c r="K103" s="9">
         <v>12722378</v>
       </c>
       <c r="L103" s="9">
@@ -6490,7 +6454,7 @@
         <v>228145288</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>117086653</v>
       </c>
@@ -6521,7 +6485,7 @@
       <c r="J104" s="9">
         <v>1136817</v>
       </c>
-      <c r="K104" s="10">
+      <c r="K104" s="9">
         <v>37029870</v>
       </c>
       <c r="L104" s="9">
@@ -6531,7 +6495,7 @@
         <v>198966577</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>117089003</v>
       </c>
@@ -6562,7 +6526,7 @@
       <c r="J105" s="9">
         <v>119662</v>
       </c>
-      <c r="K105" s="10">
+      <c r="K105" s="9">
         <v>3897785</v>
       </c>
       <c r="L105" s="9">
@@ -6572,7 +6536,7 @@
         <v>261676288</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>122091002</v>
       </c>
@@ -6603,7 +6567,7 @@
       <c r="J106" s="9">
         <v>1095538</v>
       </c>
-      <c r="K106" s="10">
+      <c r="K106" s="9">
         <v>35685277</v>
       </c>
       <c r="L106" s="9">
@@ -6613,7 +6577,7 @@
         <v>1933264413</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>122091303</v>
       </c>
@@ -6644,7 +6608,7 @@
       <c r="J107" s="9">
         <v>66260</v>
       </c>
-      <c r="K107" s="10">
+      <c r="K107" s="9">
         <v>2158306</v>
       </c>
       <c r="L107" s="9">
@@ -6654,7 +6618,7 @@
         <v>223282484</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>122091352</v>
       </c>
@@ -6685,7 +6649,7 @@
       <c r="J108" s="9">
         <v>517619</v>
       </c>
-      <c r="K108" s="10">
+      <c r="K108" s="9">
         <v>16860554</v>
       </c>
       <c r="L108" s="9">
@@ -6695,7 +6659,7 @@
         <v>1275167609</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="6">
         <v>122092002</v>
       </c>
@@ -6726,7 +6690,7 @@
       <c r="J109" s="9">
         <v>591549</v>
       </c>
-      <c r="K109" s="10">
+      <c r="K109" s="9">
         <v>19268697</v>
       </c>
       <c r="L109" s="9">
@@ -6736,7 +6700,7 @@
         <v>1628347771</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="6">
         <v>122092102</v>
       </c>
@@ -6767,7 +6731,7 @@
       <c r="J110" s="9">
         <v>6219845</v>
       </c>
-      <c r="K110" s="10">
+      <c r="K110" s="9">
         <v>202600814</v>
       </c>
       <c r="L110" s="9">
@@ -6777,7 +6741,7 @@
         <v>6782700810</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="6">
         <v>122092353</v>
       </c>
@@ -6808,7 +6772,7 @@
       <c r="J111" s="9">
         <v>16392325</v>
       </c>
-      <c r="K111" s="10">
+      <c r="K111" s="9">
         <v>533951954</v>
       </c>
       <c r="L111" s="9">
@@ -6818,7 +6782,7 @@
         <v>5318853753</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="6">
         <v>122097203</v>
       </c>
@@ -6849,7 +6813,7 @@
       <c r="J112" s="9">
         <v>342977</v>
       </c>
-      <c r="K112" s="10">
+      <c r="K112" s="9">
         <v>11171889</v>
       </c>
       <c r="L112" s="9">
@@ -6859,7 +6823,7 @@
         <v>287665593</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113" s="6">
         <v>122097502</v>
       </c>
@@ -6890,7 +6854,7 @@
       <c r="J113" s="9">
         <v>2344881</v>
       </c>
-      <c r="K113" s="10">
+      <c r="K113" s="9">
         <v>76380489</v>
       </c>
       <c r="L113" s="9">
@@ -6900,7 +6864,7 @@
         <v>2581221249</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <v>122097604</v>
       </c>
@@ -6931,7 +6895,7 @@
       <c r="J114" s="9">
         <v>4823868</v>
       </c>
-      <c r="K114" s="10">
+      <c r="K114" s="9">
         <v>157129251</v>
       </c>
       <c r="L114" s="9">
@@ -6941,7 +6905,7 @@
         <v>1279855524</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="6">
         <v>122098003</v>
       </c>
@@ -6972,7 +6936,7 @@
       <c r="J115" s="9">
         <v>1097092</v>
       </c>
-      <c r="K115" s="10">
+      <c r="K115" s="9">
         <v>35735896</v>
       </c>
       <c r="L115" s="9">
@@ -6982,7 +6946,7 @@
         <v>659884441</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="6">
         <v>122098103</v>
       </c>
@@ -7013,7 +6977,7 @@
       <c r="J116" s="9">
         <v>928274</v>
       </c>
-      <c r="K116" s="10">
+      <c r="K116" s="9">
         <v>30236938</v>
       </c>
       <c r="L116" s="9">
@@ -7023,7 +6987,7 @@
         <v>2051335704</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <v>122098202</v>
       </c>
@@ -7054,7 +7018,7 @@
       <c r="J117" s="9">
         <v>7690503</v>
       </c>
-      <c r="K117" s="10">
+      <c r="K117" s="9">
         <v>250504984</v>
       </c>
       <c r="L117" s="9">
@@ -7064,7 +7028,7 @@
         <v>3341181570</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>122098403</v>
       </c>
@@ -7095,7 +7059,7 @@
       <c r="J118" s="9">
         <v>314784</v>
       </c>
-      <c r="K118" s="10">
+      <c r="K118" s="9">
         <v>10253550</v>
       </c>
       <c r="L118" s="9">
@@ -7105,7 +7069,7 @@
         <v>1197255004</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <v>104101252</v>
       </c>
@@ -7136,7 +7100,7 @@
       <c r="J119" s="9">
         <v>225109</v>
       </c>
-      <c r="K119" s="10">
+      <c r="K119" s="9">
         <v>7332541</v>
       </c>
       <c r="L119" s="9">
@@ -7146,7 +7110,7 @@
         <v>1363398965</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <v>104103603</v>
       </c>
@@ -7177,7 +7141,7 @@
       <c r="J120" s="9">
         <v>18433</v>
       </c>
-      <c r="K120" s="10">
+      <c r="K120" s="9">
         <v>600423</v>
       </c>
       <c r="L120" s="9">
@@ -7187,7 +7151,7 @@
         <v>220510377</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <v>104105003</v>
       </c>
@@ -7218,7 +7182,7 @@
       <c r="J121" s="9">
         <v>688509</v>
       </c>
-      <c r="K121" s="10">
+      <c r="K121" s="9">
         <v>22427003</v>
       </c>
       <c r="L121" s="9">
@@ -7228,7 +7192,7 @@
         <v>1367138950</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>104105353</v>
       </c>
@@ -7259,7 +7223,7 @@
       <c r="J122" s="9">
         <v>13963</v>
       </c>
-      <c r="K122" s="10">
+      <c r="K122" s="9">
         <v>454821</v>
       </c>
       <c r="L122" s="9">
@@ -7269,7 +7233,7 @@
         <v>204356373</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <v>104107903</v>
       </c>
@@ -7300,7 +7264,7 @@
       <c r="J123" s="9">
         <v>1177351</v>
       </c>
-      <c r="K123" s="10">
+      <c r="K123" s="9">
         <v>38350195</v>
       </c>
       <c r="L123" s="9">
@@ -7310,7 +7274,7 @@
         <v>2409714496</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <v>104107503</v>
       </c>
@@ -7341,7 +7305,7 @@
       <c r="J124" s="9">
         <v>94610</v>
       </c>
-      <c r="K124" s="10">
+      <c r="K124" s="9">
         <v>3081759</v>
       </c>
       <c r="L124" s="9">
@@ -7351,7 +7315,7 @@
         <v>424730294</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <v>104107803</v>
       </c>
@@ -7382,7 +7346,7 @@
       <c r="J125" s="9">
         <v>206069</v>
       </c>
-      <c r="K125" s="10">
+      <c r="K125" s="9">
         <v>6712345</v>
       </c>
       <c r="L125" s="9">
@@ -7392,7 +7356,7 @@
         <v>613053787</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <v>108110603</v>
       </c>
@@ -7423,7 +7387,7 @@
       <c r="J126" s="9">
         <v>14384</v>
       </c>
-      <c r="K126" s="10">
+      <c r="K126" s="9">
         <v>468534</v>
       </c>
       <c r="L126" s="9">
@@ -7433,7 +7397,7 @@
         <v>84072378</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <v>108111203</v>
       </c>
@@ -7464,7 +7428,7 @@
       <c r="J127" s="9">
         <v>17123</v>
       </c>
-      <c r="K127" s="10">
+      <c r="K127" s="9">
         <v>557752</v>
       </c>
       <c r="L127" s="9">
@@ -7474,7 +7438,7 @@
         <v>211911528</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <v>108111303</v>
       </c>
@@ -7505,7 +7469,7 @@
       <c r="J128" s="9">
         <v>26195</v>
       </c>
-      <c r="K128" s="10">
+      <c r="K128" s="9">
         <v>853257</v>
       </c>
       <c r="L128" s="9">
@@ -7515,7 +7479,7 @@
         <v>312862045</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129" s="6">
         <v>108111403</v>
       </c>
@@ -7546,7 +7510,7 @@
       <c r="J129" s="9">
         <v>4688</v>
       </c>
-      <c r="K129" s="10">
+      <c r="K129" s="9">
         <v>152704</v>
       </c>
       <c r="L129" s="9">
@@ -7556,7 +7520,7 @@
         <v>121991045</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>108112003</v>
       </c>
@@ -7587,7 +7551,7 @@
       <c r="J130" s="9">
         <v>2671</v>
       </c>
-      <c r="K130" s="10">
+      <c r="K130" s="9">
         <v>87003</v>
       </c>
       <c r="L130" s="9">
@@ -7597,7 +7561,7 @@
         <v>70696330</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>108112203</v>
       </c>
@@ -7628,7 +7592,7 @@
       <c r="J131" s="9">
         <v>52173</v>
       </c>
-      <c r="K131" s="10">
+      <c r="K131" s="9">
         <v>1699446</v>
       </c>
       <c r="L131" s="9">
@@ -7638,7 +7602,7 @@
         <v>289092504</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>108112502</v>
       </c>
@@ -7669,7 +7633,7 @@
       <c r="J132" s="9">
         <v>31269</v>
       </c>
-      <c r="K132" s="10">
+      <c r="K132" s="9">
         <v>1018534</v>
       </c>
       <c r="L132" s="9">
@@ -7679,7 +7643,7 @@
         <v>286560525</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133" s="6">
         <v>108114503</v>
       </c>
@@ -7710,7 +7674,7 @@
       <c r="J133" s="9">
         <v>15263</v>
       </c>
-      <c r="K133" s="10">
+      <c r="K133" s="9">
         <v>497166</v>
       </c>
       <c r="L133" s="9">
@@ -7720,7 +7684,7 @@
         <v>152907338</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134" s="6">
         <v>108116003</v>
       </c>
@@ -7751,7 +7715,7 @@
       <c r="J134" s="9">
         <v>50774</v>
       </c>
-      <c r="K134" s="10">
+      <c r="K134" s="9">
         <v>1653876</v>
       </c>
       <c r="L134" s="9">
@@ -7761,7 +7725,7 @@
         <v>283460310</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135" s="6">
         <v>108116303</v>
       </c>
@@ -7792,7 +7756,7 @@
       <c r="J135" s="9">
         <v>4575</v>
       </c>
-      <c r="K135" s="10">
+      <c r="K135" s="9">
         <v>149023</v>
       </c>
       <c r="L135" s="9">
@@ -7802,7 +7766,7 @@
         <v>116608867</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <v>108116503</v>
       </c>
@@ -7833,7 +7797,7 @@
       <c r="J136" s="9">
         <v>93603</v>
       </c>
-      <c r="K136" s="10">
+      <c r="K136" s="9">
         <v>3048958</v>
       </c>
       <c r="L136" s="9">
@@ -7843,7 +7807,7 @@
         <v>368848048</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>108118503</v>
       </c>
@@ -7874,7 +7838,7 @@
       <c r="J137" s="9">
         <v>84388</v>
       </c>
-      <c r="K137" s="10">
+      <c r="K137" s="9">
         <v>2748795</v>
       </c>
       <c r="L137" s="9">
@@ -7884,7 +7848,7 @@
         <v>384981146</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138" s="6">
         <v>109122703</v>
       </c>
@@ -7915,7 +7879,7 @@
       <c r="J138" s="9">
         <v>17518</v>
       </c>
-      <c r="K138" s="10">
+      <c r="K138" s="9">
         <v>570619</v>
       </c>
       <c r="L138" s="9">
@@ -7925,7 +7889,7 @@
         <v>78251043</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139" s="6">
         <v>121135003</v>
       </c>
@@ -7956,7 +7920,7 @@
       <c r="J139" s="9">
         <v>563584</v>
       </c>
-      <c r="K139" s="10">
+      <c r="K139" s="9">
         <v>18357785</v>
       </c>
       <c r="L139" s="9">
@@ -7966,7 +7930,7 @@
         <v>349635290</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <v>121135503</v>
       </c>
@@ -7997,7 +7961,7 @@
       <c r="J140" s="9">
         <v>104632</v>
       </c>
-      <c r="K140" s="10">
+      <c r="K140" s="9">
         <v>3408208</v>
       </c>
       <c r="L140" s="9">
@@ -8007,7 +7971,7 @@
         <v>407219727</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141" s="6">
         <v>121136503</v>
       </c>
@@ -8038,7 +8002,7 @@
       <c r="J141" s="9">
         <v>169860</v>
       </c>
-      <c r="K141" s="10">
+      <c r="K141" s="9">
         <v>5532899</v>
       </c>
       <c r="L141" s="9">
@@ -8048,7 +8012,7 @@
         <v>358652137</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>121136603</v>
       </c>
@@ -8079,7 +8043,7 @@
       <c r="J142" s="9">
         <v>25683</v>
       </c>
-      <c r="K142" s="10">
+      <c r="K142" s="9">
         <v>836580</v>
       </c>
       <c r="L142" s="9">
@@ -8089,7 +8053,7 @@
         <v>206876325</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <v>121139004</v>
       </c>
@@ -8120,7 +8084,7 @@
       <c r="J143" s="9">
         <v>47983</v>
       </c>
-      <c r="K143" s="10">
+      <c r="K143" s="9">
         <v>1562964</v>
       </c>
       <c r="L143" s="9">
@@ -8130,7 +8094,7 @@
         <v>107109584</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <v>110141003</v>
       </c>
@@ -8161,7 +8125,7 @@
       <c r="J144" s="9">
         <v>40627</v>
       </c>
-      <c r="K144" s="10">
+      <c r="K144" s="9">
         <v>1323355</v>
       </c>
       <c r="L144" s="9">
@@ -8171,7 +8135,7 @@
         <v>296842348</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <v>110141103</v>
       </c>
@@ -8202,7 +8166,7 @@
       <c r="J145" s="9">
         <v>66506</v>
       </c>
-      <c r="K145" s="10">
+      <c r="K145" s="9">
         <v>2166319</v>
       </c>
       <c r="L145" s="9">
@@ -8212,7 +8176,7 @@
         <v>637299964</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146" s="6">
         <v>110147003</v>
       </c>
@@ -8243,7 +8207,7 @@
       <c r="J146" s="9">
         <v>63318</v>
       </c>
-      <c r="K146" s="10">
+      <c r="K146" s="9">
         <v>2062476</v>
       </c>
       <c r="L146" s="9">
@@ -8253,7 +8217,7 @@
         <v>299158128</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <v>110148002</v>
       </c>
@@ -8284,7 +8248,7 @@
       <c r="J147" s="9">
         <v>1082444</v>
       </c>
-      <c r="K147" s="10">
+      <c r="K147" s="9">
         <v>35258762</v>
       </c>
       <c r="L147" s="9">
@@ -8294,7 +8258,7 @@
         <v>2430828437</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148" s="6">
         <v>124150503</v>
       </c>
@@ -8325,7 +8289,7 @@
       <c r="J148" s="9">
         <v>12057140</v>
       </c>
-      <c r="K148" s="10">
+      <c r="K148" s="9">
         <v>392740717</v>
       </c>
       <c r="L148" s="9">
@@ -8335,7 +8299,7 @@
         <v>1031332901</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <v>124151902</v>
       </c>
@@ -8366,7 +8330,7 @@
       <c r="J149" s="9">
         <v>1714664</v>
       </c>
-      <c r="K149" s="10">
+      <c r="K149" s="9">
         <v>55852248</v>
       </c>
       <c r="L149" s="9">
@@ -8376,7 +8340,7 @@
         <v>1788898128</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <v>124152003</v>
       </c>
@@ -8407,7 +8371,7 @@
       <c r="J150" s="9">
         <v>5754582</v>
       </c>
-      <c r="K150" s="10">
+      <c r="K150" s="9">
         <v>187445668</v>
       </c>
       <c r="L150" s="9">
@@ -8417,7 +8381,7 @@
         <v>4107300895</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151" s="6">
         <v>124153503</v>
       </c>
@@ -8448,7 +8412,7 @@
       <c r="J151" s="9">
         <v>4412326</v>
       </c>
-      <c r="K151" s="10">
+      <c r="K151" s="9">
         <v>143723974</v>
       </c>
       <c r="L151" s="9">
@@ -8458,7 +8422,7 @@
         <v>2535841652</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152" s="6">
         <v>124154003</v>
       </c>
@@ -8489,7 +8453,7 @@
       <c r="J152" s="9">
         <v>12946616</v>
       </c>
-      <c r="K152" s="10">
+      <c r="K152" s="9">
         <v>421713876</v>
       </c>
       <c r="L152" s="9">
@@ -8499,7 +8463,7 @@
         <v>1050640465</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153" s="6">
         <v>124156503</v>
       </c>
@@ -8530,7 +8494,7 @@
       <c r="J153" s="9">
         <v>799102</v>
       </c>
-      <c r="K153" s="10">
+      <c r="K153" s="9">
         <v>26029381</v>
       </c>
       <c r="L153" s="9">
@@ -8540,7 +8504,7 @@
         <v>616267692</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>124156603</v>
       </c>
@@ -8571,7 +8535,7 @@
       <c r="J154" s="9">
         <v>1502917</v>
       </c>
-      <c r="K154" s="10">
+      <c r="K154" s="9">
         <v>48954951</v>
       </c>
       <c r="L154" s="9">
@@ -8581,7 +8545,7 @@
         <v>1870887308</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <v>124156703</v>
       </c>
@@ -8612,7 +8576,7 @@
       <c r="J155" s="9">
         <v>3189663</v>
       </c>
-      <c r="K155" s="10">
+      <c r="K155" s="9">
         <v>103897818</v>
       </c>
       <c r="L155" s="9">
@@ -8622,7 +8586,7 @@
         <v>636657016</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>124157203</v>
       </c>
@@ -8653,7 +8617,7 @@
       <c r="J156" s="9">
         <v>973340</v>
       </c>
-      <c r="K156" s="10">
+      <c r="K156" s="9">
         <v>31704886</v>
       </c>
       <c r="L156" s="9">
@@ -8663,7 +8627,7 @@
         <v>1803108764</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>124157802</v>
       </c>
@@ -8694,7 +8658,7 @@
       <c r="J157" s="9">
         <v>6973526</v>
       </c>
-      <c r="K157" s="10">
+      <c r="K157" s="9">
         <v>227150684</v>
       </c>
       <c r="L157" s="9">
@@ -8704,7 +8668,7 @@
         <v>3997578392</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>124158503</v>
       </c>
@@ -8735,7 +8699,7 @@
       <c r="J158" s="9">
         <v>16932090</v>
       </c>
-      <c r="K158" s="10">
+      <c r="K158" s="9">
         <v>551533876</v>
       </c>
       <c r="L158" s="9">
@@ -8745,7 +8709,7 @@
         <v>1749351698</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <v>124159002</v>
       </c>
@@ -8776,7 +8740,7 @@
       <c r="J159" s="9">
         <v>12725770</v>
       </c>
-      <c r="K159" s="10">
+      <c r="K159" s="9">
         <v>414520195</v>
       </c>
       <c r="L159" s="9">
@@ -8786,7 +8750,7 @@
         <v>5616886135</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160" s="6">
         <v>106160303</v>
       </c>
@@ -8817,7 +8781,7 @@
       <c r="J160" s="9">
         <v>12245</v>
       </c>
-      <c r="K160" s="10">
+      <c r="K160" s="9">
         <v>398860</v>
       </c>
       <c r="L160" s="9">
@@ -8827,7 +8791,7 @@
         <v>116656013</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161" s="6">
         <v>106161203</v>
       </c>
@@ -8858,7 +8822,7 @@
       <c r="J161" s="9">
         <v>34355</v>
       </c>
-      <c r="K161" s="10">
+      <c r="K161" s="9">
         <v>1119055</v>
       </c>
       <c r="L161" s="9">
@@ -8868,7 +8832,7 @@
         <v>158097506</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <v>106161703</v>
       </c>
@@ -8899,7 +8863,7 @@
       <c r="J162" s="9">
         <v>6856</v>
       </c>
-      <c r="K162" s="10">
+      <c r="K162" s="9">
         <v>223322</v>
       </c>
       <c r="L162" s="9">
@@ -8909,7 +8873,7 @@
         <v>135571234</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <v>106166503</v>
       </c>
@@ -8940,7 +8904,7 @@
       <c r="J163" s="9">
         <v>13293</v>
       </c>
-      <c r="K163" s="10">
+      <c r="K163" s="9">
         <v>432997</v>
       </c>
       <c r="L163" s="9">
@@ -8950,7 +8914,7 @@
         <v>153519238</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <v>106167504</v>
       </c>
@@ -8981,7 +8945,7 @@
       <c r="J164" s="9">
         <v>9108</v>
       </c>
-      <c r="K164" s="10">
+      <c r="K164" s="9">
         <v>296678</v>
       </c>
       <c r="L164" s="9">
@@ -8991,7 +8955,7 @@
         <v>105160266</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165" s="6">
         <v>106168003</v>
       </c>
@@ -9022,7 +8986,7 @@
       <c r="J165" s="9">
         <v>73198</v>
       </c>
-      <c r="K165" s="10">
+      <c r="K165" s="9">
         <v>2384300</v>
       </c>
       <c r="L165" s="9">
@@ -9032,7 +8996,7 @@
         <v>159637907</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A166" s="6">
         <v>106169003</v>
       </c>
@@ -9063,7 +9027,7 @@
       <c r="J166" s="9">
         <v>4486</v>
       </c>
-      <c r="K166" s="10">
+      <c r="K166" s="9">
         <v>146124</v>
       </c>
       <c r="L166" s="9">
@@ -9073,7 +9037,7 @@
         <v>68858671</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A167" s="6">
         <v>110171003</v>
       </c>
@@ -9104,7 +9068,7 @@
       <c r="J167" s="9">
         <v>29097</v>
       </c>
-      <c r="K167" s="10">
+      <c r="K167" s="9">
         <v>947785</v>
       </c>
       <c r="L167" s="9">
@@ -9114,7 +9078,7 @@
         <v>363914666</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <v>110171803</v>
       </c>
@@ -9145,7 +9109,7 @@
       <c r="J168" s="9">
         <v>28909</v>
       </c>
-      <c r="K168" s="10">
+      <c r="K168" s="9">
         <v>941661</v>
       </c>
       <c r="L168" s="9">
@@ -9155,7 +9119,7 @@
         <v>146829492</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <v>106172003</v>
       </c>
@@ -9186,7 +9150,7 @@
       <c r="J169" s="9">
         <v>85243</v>
       </c>
-      <c r="K169" s="10">
+      <c r="K169" s="9">
         <v>2776645</v>
       </c>
       <c r="L169" s="9">
@@ -9196,7 +9160,7 @@
         <v>696408459</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <v>110173003</v>
       </c>
@@ -9227,7 +9191,7 @@
       <c r="J170" s="9">
         <v>10582</v>
       </c>
-      <c r="K170" s="10">
+      <c r="K170" s="9">
         <v>344691</v>
       </c>
       <c r="L170" s="9">
@@ -9237,7 +9201,7 @@
         <v>95089240</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>110173504</v>
       </c>
@@ -9268,7 +9232,7 @@
       <c r="J171" s="9">
         <v>4717</v>
       </c>
-      <c r="K171" s="10">
+      <c r="K171" s="9">
         <v>153648</v>
       </c>
       <c r="L171" s="9">
@@ -9278,7 +9242,7 @@
         <v>39202863</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <v>110175003</v>
       </c>
@@ -9309,7 +9273,7 @@
       <c r="J172" s="9">
         <v>10288</v>
       </c>
-      <c r="K172" s="10">
+      <c r="K172" s="9">
         <v>335114</v>
       </c>
       <c r="L172" s="9">
@@ -9319,7 +9283,7 @@
         <v>127616324</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A173" s="6">
         <v>110177003</v>
       </c>
@@ -9350,7 +9314,7 @@
       <c r="J173" s="9">
         <v>28167</v>
       </c>
-      <c r="K173" s="10">
+      <c r="K173" s="9">
         <v>917492</v>
       </c>
       <c r="L173" s="9">
@@ -9360,7 +9324,7 @@
         <v>283865941</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A174" s="6">
         <v>110179003</v>
       </c>
@@ -9391,7 +9355,7 @@
       <c r="J174" s="9">
         <v>11448</v>
       </c>
-      <c r="K174" s="10">
+      <c r="K174" s="9">
         <v>372899</v>
       </c>
       <c r="L174" s="9">
@@ -9401,7 +9365,7 @@
         <v>149169081</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A175" s="6">
         <v>110183602</v>
       </c>
@@ -9432,7 +9396,7 @@
       <c r="J175" s="9">
         <v>131564</v>
       </c>
-      <c r="K175" s="10">
+      <c r="K175" s="9">
         <v>4285472</v>
       </c>
       <c r="L175" s="9">
@@ -9442,7 +9406,7 @@
         <v>743889050</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A176" s="6">
         <v>116191004</v>
       </c>
@@ -9473,7 +9437,7 @@
       <c r="J176" s="9">
         <v>16526</v>
       </c>
-      <c r="K176" s="10">
+      <c r="K176" s="9">
         <v>538306</v>
       </c>
       <c r="L176" s="9">
@@ -9483,7 +9447,7 @@
         <v>124177168</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177" s="6">
         <v>116191103</v>
       </c>
@@ -9514,7 +9478,7 @@
       <c r="J177" s="9">
         <v>89580</v>
       </c>
-      <c r="K177" s="10">
+      <c r="K177" s="9">
         <v>2917915</v>
       </c>
       <c r="L177" s="9">
@@ -9524,7 +9488,7 @@
         <v>463417931</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <v>116191203</v>
       </c>
@@ -9555,7 +9519,7 @@
       <c r="J178" s="9">
         <v>81087</v>
       </c>
-      <c r="K178" s="10">
+      <c r="K178" s="9">
         <v>2641270</v>
       </c>
       <c r="L178" s="9">
@@ -9565,7 +9529,7 @@
         <v>334845062</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <v>116191503</v>
       </c>
@@ -9596,7 +9560,7 @@
       <c r="J179" s="9">
         <v>162589</v>
       </c>
-      <c r="K179" s="10">
+      <c r="K179" s="9">
         <v>5296059</v>
       </c>
       <c r="L179" s="9">
@@ -9606,7 +9570,7 @@
         <v>425591125</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <v>116195004</v>
       </c>
@@ -9637,7 +9601,7 @@
       <c r="J180" s="9">
         <v>47052</v>
       </c>
-      <c r="K180" s="10">
+      <c r="K180" s="9">
         <v>1532638</v>
       </c>
       <c r="L180" s="9">
@@ -9647,7 +9611,7 @@
         <v>119247737</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181" s="6">
         <v>116197503</v>
       </c>
@@ -9678,7 +9642,7 @@
       <c r="J181" s="9">
         <v>40306</v>
       </c>
-      <c r="K181" s="10">
+      <c r="K181" s="9">
         <v>1312899</v>
       </c>
       <c r="L181" s="9">
@@ -9688,7 +9652,7 @@
         <v>288010807</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182" s="6">
         <v>105201033</v>
       </c>
@@ -9719,7 +9683,7 @@
       <c r="J182" s="9">
         <v>76190</v>
       </c>
-      <c r="K182" s="10">
+      <c r="K182" s="9">
         <v>2481759</v>
       </c>
       <c r="L182" s="9">
@@ -9729,7 +9693,7 @@
         <v>321322944</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183" s="6">
         <v>105201352</v>
       </c>
@@ -9760,7 +9724,7 @@
       <c r="J183" s="9">
         <v>125209</v>
       </c>
-      <c r="K183" s="10">
+      <c r="K183" s="9">
         <v>4078469</v>
       </c>
       <c r="L183" s="9">
@@ -9770,7 +9734,7 @@
         <v>633948172</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <v>105204703</v>
       </c>
@@ -9801,7 +9765,7 @@
       <c r="J184" s="9">
         <v>72168</v>
       </c>
-      <c r="K184" s="10">
+      <c r="K184" s="9">
         <v>2350749</v>
       </c>
       <c r="L184" s="9">
@@ -9811,7 +9775,7 @@
         <v>479050116</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <v>115210503</v>
       </c>
@@ -9842,7 +9806,7 @@
       <c r="J185" s="9">
         <v>71668</v>
       </c>
-      <c r="K185" s="10">
+      <c r="K185" s="9">
         <v>2334463</v>
       </c>
       <c r="L185" s="9">
@@ -9852,7 +9816,7 @@
         <v>538018932</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <v>115211003</v>
       </c>
@@ -9883,7 +9847,7 @@
       <c r="J186" s="9">
         <v>259319</v>
       </c>
-      <c r="K186" s="10">
+      <c r="K186" s="9">
         <v>8446873</v>
       </c>
       <c r="L186" s="9">
@@ -9893,7 +9857,7 @@
         <v>452411623</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>115211103</v>
       </c>
@@ -9924,7 +9888,7 @@
       <c r="J187" s="9">
         <v>616944</v>
       </c>
-      <c r="K187" s="10">
+      <c r="K187" s="9">
         <v>20095896</v>
       </c>
       <c r="L187" s="9">
@@ -9934,7 +9898,7 @@
         <v>975890227</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <v>115211603</v>
       </c>
@@ -9965,7 +9929,7 @@
       <c r="J188" s="9">
         <v>1095098</v>
       </c>
-      <c r="K188" s="10">
+      <c r="K188" s="9">
         <v>35670945</v>
       </c>
       <c r="L188" s="9">
@@ -9975,7 +9939,7 @@
         <v>2678560205</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <v>115212503</v>
       </c>
@@ -10006,7 +9970,7 @@
       <c r="J189" s="9">
         <v>91856</v>
       </c>
-      <c r="K189" s="10">
+      <c r="K189" s="9">
         <v>2992052</v>
       </c>
       <c r="L189" s="9">
@@ -10016,7 +9980,7 @@
         <v>592678556</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <v>115216503</v>
       </c>
@@ -10047,7 +10011,7 @@
       <c r="J190" s="9">
         <v>838995</v>
       </c>
-      <c r="K190" s="10">
+      <c r="K190" s="9">
         <v>27328827</v>
       </c>
       <c r="L190" s="9">
@@ -10057,7 +10021,7 @@
         <v>1105669888</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A191" s="6">
         <v>115218003</v>
       </c>
@@ -10088,7 +10052,7 @@
       <c r="J191" s="9">
         <v>98390</v>
       </c>
-      <c r="K191" s="10">
+      <c r="K191" s="9">
         <v>3204886</v>
       </c>
       <c r="L191" s="9">
@@ -10098,7 +10062,7 @@
         <v>631117207</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <v>115218303</v>
       </c>
@@ -10129,7 +10093,7 @@
       <c r="J192" s="9">
         <v>64759</v>
       </c>
-      <c r="K192" s="10">
+      <c r="K192" s="9">
         <v>2109414</v>
       </c>
       <c r="L192" s="9">
@@ -10139,7 +10103,7 @@
         <v>488598636</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <v>115221402</v>
       </c>
@@ -10170,7 +10134,7 @@
       <c r="J193" s="9">
         <v>866766</v>
       </c>
-      <c r="K193" s="10">
+      <c r="K193" s="9">
         <v>28233420</v>
       </c>
       <c r="L193" s="9">
@@ -10180,7 +10144,7 @@
         <v>2941828070</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <v>115221753</v>
       </c>
@@ -10211,7 +10175,7 @@
       <c r="J194" s="9">
         <v>495208</v>
       </c>
-      <c r="K194" s="10">
+      <c r="K194" s="9">
         <v>16130554</v>
       </c>
       <c r="L194" s="9">
@@ -10221,7 +10185,7 @@
         <v>1200852024</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <v>115222504</v>
       </c>
@@ -10252,7 +10216,7 @@
       <c r="J195" s="9">
         <v>48909</v>
       </c>
-      <c r="K195" s="10">
+      <c r="K195" s="9">
         <v>1593127</v>
       </c>
       <c r="L195" s="9">
@@ -10262,7 +10226,7 @@
         <v>202389041</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <v>115222752</v>
       </c>
@@ -10293,7 +10257,7 @@
       <c r="J196" s="9">
         <v>231329</v>
       </c>
-      <c r="K196" s="10">
+      <c r="K196" s="9">
         <v>7535147</v>
       </c>
       <c r="L196" s="9">
@@ -10303,7 +10267,7 @@
         <v>874814647</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <v>115224003</v>
       </c>
@@ -10334,7 +10298,7 @@
       <c r="J197" s="9">
         <v>213583</v>
       </c>
-      <c r="K197" s="10">
+      <c r="K197" s="9">
         <v>6957101</v>
       </c>
       <c r="L197" s="9">
@@ -10344,7 +10308,7 @@
         <v>926066695</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="6">
         <v>115226003</v>
       </c>
@@ -10375,7 +10339,7 @@
       <c r="J198" s="9">
         <v>36267</v>
       </c>
-      <c r="K198" s="10">
+      <c r="K198" s="9">
         <v>1181336</v>
       </c>
       <c r="L198" s="9">
@@ -10385,7 +10349,7 @@
         <v>434351808</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="6">
         <v>115226103</v>
       </c>
@@ -10416,7 +10380,7 @@
       <c r="J199" s="9">
         <v>27438</v>
       </c>
-      <c r="K199" s="10">
+      <c r="K199" s="9">
         <v>893746</v>
       </c>
       <c r="L199" s="9">
@@ -10426,7 +10390,7 @@
         <v>165236267</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A200" s="6">
         <v>115228003</v>
       </c>
@@ -10457,7 +10421,7 @@
       <c r="J200" s="9">
         <v>11545</v>
       </c>
-      <c r="K200" s="10">
+      <c r="K200" s="9">
         <v>376059</v>
       </c>
       <c r="L200" s="9">
@@ -10467,7 +10431,7 @@
         <v>125175865</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <v>115228303</v>
       </c>
@@ -10498,7 +10462,7 @@
       <c r="J201" s="9">
         <v>157477</v>
       </c>
-      <c r="K201" s="10">
+      <c r="K201" s="9">
         <v>5129544</v>
       </c>
       <c r="L201" s="9">
@@ -10508,7 +10472,7 @@
         <v>736240476</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A202" s="6">
         <v>115229003</v>
       </c>
@@ -10539,7 +10503,7 @@
       <c r="J202" s="9">
         <v>31053</v>
       </c>
-      <c r="K202" s="10">
+      <c r="K202" s="9">
         <v>1011498</v>
       </c>
       <c r="L202" s="9">
@@ -10549,7 +10513,7 @@
         <v>203784944</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="6">
         <v>125231232</v>
       </c>
@@ -10580,7 +10544,7 @@
       <c r="J203" s="9">
         <v>612307</v>
       </c>
-      <c r="K203" s="10">
+      <c r="K203" s="9">
         <v>19944853</v>
       </c>
       <c r="L203" s="9">
@@ -10590,7 +10554,7 @@
         <v>457672929</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A204" s="6">
         <v>125231303</v>
       </c>
@@ -10621,7 +10585,7 @@
       <c r="J204" s="9">
         <v>1545910</v>
       </c>
-      <c r="K204" s="10">
+      <c r="K204" s="9">
         <v>50355375</v>
       </c>
       <c r="L204" s="9">
@@ -10631,7 +10595,7 @@
         <v>536704246</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A205" s="6">
         <v>125234103</v>
       </c>
@@ -10662,7 +10626,7 @@
       <c r="J205" s="9">
         <v>9170014</v>
       </c>
-      <c r="K205" s="10">
+      <c r="K205" s="9">
         <v>298697524</v>
       </c>
       <c r="L205" s="9">
@@ -10672,7 +10636,7 @@
         <v>1387037752</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A206" s="6">
         <v>125234502</v>
       </c>
@@ -10703,7 +10667,7 @@
       <c r="J206" s="9">
         <v>3285396</v>
       </c>
-      <c r="K206" s="10">
+      <c r="K206" s="9">
         <v>107016156</v>
       </c>
       <c r="L206" s="9">
@@ -10713,7 +10677,7 @@
         <v>2560051705</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A207" s="6">
         <v>125235103</v>
       </c>
@@ -10744,7 +10708,7 @@
       <c r="J207" s="9">
         <v>542118</v>
       </c>
-      <c r="K207" s="10">
+      <c r="K207" s="9">
         <v>17658567</v>
       </c>
       <c r="L207" s="9">
@@ -10754,7 +10718,7 @@
         <v>535520752</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="6">
         <v>125235502</v>
       </c>
@@ -10785,7 +10749,7 @@
       <c r="J208" s="9">
         <v>5128832</v>
       </c>
-      <c r="K208" s="10">
+      <c r="K208" s="9">
         <v>167062932</v>
       </c>
       <c r="L208" s="9">
@@ -10795,7 +10759,7 @@
         <v>2457752533</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A209" s="6">
         <v>125236903</v>
       </c>
@@ -10826,7 +10790,7 @@
       <c r="J209" s="9">
         <v>1820980</v>
       </c>
-      <c r="K209" s="10">
+      <c r="K209" s="9">
         <v>59315309</v>
       </c>
       <c r="L209" s="9">
@@ -10836,7 +10800,7 @@
         <v>811437779</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A210" s="6">
         <v>125237603</v>
       </c>
@@ -10867,7 +10831,7 @@
       <c r="J210" s="9">
         <v>7048497</v>
       </c>
-      <c r="K210" s="10">
+      <c r="K210" s="9">
         <v>229592736</v>
       </c>
       <c r="L210" s="9">
@@ -10877,7 +10841,7 @@
         <v>2972893269</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A211" s="6">
         <v>125237702</v>
       </c>
@@ -10908,7 +10872,7 @@
       <c r="J211" s="9">
         <v>1266628</v>
       </c>
-      <c r="K211" s="10">
+      <c r="K211" s="9">
         <v>41258241</v>
       </c>
       <c r="L211" s="9">
@@ -10918,7 +10882,7 @@
         <v>1121355450</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A212" s="6">
         <v>125237903</v>
       </c>
@@ -10949,7 +10913,7 @@
       <c r="J212" s="9">
         <v>6146365</v>
       </c>
-      <c r="K212" s="10">
+      <c r="K212" s="9">
         <v>200207329</v>
       </c>
       <c r="L212" s="9">
@@ -10959,7 +10923,7 @@
         <v>2204111413</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A213" s="6">
         <v>125238402</v>
       </c>
@@ -10990,7 +10954,7 @@
       <c r="J213" s="9">
         <v>362718</v>
       </c>
-      <c r="K213" s="10">
+      <c r="K213" s="9">
         <v>11814919</v>
       </c>
       <c r="L213" s="9">
@@ -11000,7 +10964,7 @@
         <v>504823977</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A214" s="6">
         <v>125238502</v>
       </c>
@@ -11031,7 +10995,7 @@
       <c r="J214" s="9">
         <v>1432571</v>
       </c>
-      <c r="K214" s="10">
+      <c r="K214" s="9">
         <v>46663550</v>
       </c>
       <c r="L214" s="9">
@@ -11041,7 +11005,7 @@
         <v>1176682966</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A215" s="6">
         <v>125239452</v>
       </c>
@@ -11072,7 +11036,7 @@
       <c r="J215" s="9">
         <v>1393035</v>
       </c>
-      <c r="K215" s="10">
+      <c r="K215" s="9">
         <v>45375733</v>
       </c>
       <c r="L215" s="9">
@@ -11082,7 +11046,7 @@
         <v>2055167087</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A216" s="6">
         <v>125239603</v>
       </c>
@@ -11113,7 +11077,7 @@
       <c r="J216" s="9">
         <v>4176890</v>
       </c>
-      <c r="K216" s="10">
+      <c r="K216" s="9">
         <v>136055049</v>
       </c>
       <c r="L216" s="9">
@@ -11123,7 +11087,7 @@
         <v>1172535609</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A217" s="6">
         <v>125239652</v>
       </c>
@@ -11154,7 +11118,7 @@
       <c r="J217" s="9">
         <v>490839</v>
       </c>
-      <c r="K217" s="10">
+      <c r="K217" s="9">
         <v>15988241</v>
       </c>
       <c r="L217" s="9">
@@ -11164,7 +11128,7 @@
         <v>855271789</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A218" s="6">
         <v>109243503</v>
       </c>
@@ -11195,7 +11159,7 @@
       <c r="J218" s="9">
         <v>10763</v>
       </c>
-      <c r="K218" s="10">
+      <c r="K218" s="9">
         <v>350586</v>
       </c>
       <c r="L218" s="9">
@@ -11205,7 +11169,7 @@
         <v>91787411</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A219" s="6">
         <v>109246003</v>
       </c>
@@ -11236,7 +11200,7 @@
       <c r="J219" s="9">
         <v>9955</v>
       </c>
-      <c r="K219" s="10">
+      <c r="K219" s="9">
         <v>324267</v>
       </c>
       <c r="L219" s="9">
@@ -11246,7 +11210,7 @@
         <v>154209727</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A220" s="6">
         <v>109248003</v>
       </c>
@@ -11277,7 +11241,7 @@
       <c r="J220" s="9">
         <v>68523</v>
       </c>
-      <c r="K220" s="10">
+      <c r="K220" s="9">
         <v>2232020</v>
       </c>
       <c r="L220" s="9">
@@ -11287,7 +11251,7 @@
         <v>507749426</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A221" s="6">
         <v>105251453</v>
       </c>
@@ -11318,7 +11282,7 @@
       <c r="J221" s="9">
         <v>336028</v>
       </c>
-      <c r="K221" s="10">
+      <c r="K221" s="9">
         <v>10945537</v>
       </c>
       <c r="L221" s="9">
@@ -11328,7 +11292,7 @@
         <v>243674258</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A222" s="6">
         <v>105252602</v>
       </c>
@@ -11359,7 +11323,7 @@
       <c r="J222" s="9">
         <v>343112</v>
       </c>
-      <c r="K222" s="10">
+      <c r="K222" s="9">
         <v>11176287</v>
       </c>
       <c r="L222" s="9">
@@ -11369,7 +11333,7 @@
         <v>1556557209</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A223" s="6">
         <v>105253303</v>
       </c>
@@ -11400,7 +11364,7 @@
       <c r="J223" s="9">
         <v>236278</v>
       </c>
-      <c r="K223" s="10">
+      <c r="K223" s="9">
         <v>7696352</v>
       </c>
       <c r="L223" s="9">
@@ -11410,7 +11374,7 @@
         <v>480912450</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <v>105253553</v>
       </c>
@@ -11441,7 +11405,7 @@
       <c r="J224" s="9">
         <v>105364</v>
       </c>
-      <c r="K224" s="10">
+      <c r="K224" s="9">
         <v>3432052</v>
       </c>
       <c r="L224" s="9">
@@ -11451,7 +11415,7 @@
         <v>397107465</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A225" s="6">
         <v>105253903</v>
       </c>
@@ -11482,7 +11446,7 @@
       <c r="J225" s="9">
         <v>151269</v>
       </c>
-      <c r="K225" s="10">
+      <c r="K225" s="9">
         <v>4927329</v>
       </c>
       <c r="L225" s="9">
@@ -11492,7 +11456,7 @@
         <v>419895404</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A226" s="6">
         <v>105254053</v>
       </c>
@@ -11523,7 +11487,7 @@
       <c r="J226" s="9">
         <v>37837</v>
       </c>
-      <c r="K226" s="10">
+      <c r="K226" s="9">
         <v>1232476</v>
       </c>
       <c r="L226" s="9">
@@ -11533,7 +11497,7 @@
         <v>230544616</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A227" s="6">
         <v>105254353</v>
       </c>
@@ -11564,7 +11528,7 @@
       <c r="J227" s="9">
         <v>293543</v>
       </c>
-      <c r="K227" s="10">
+      <c r="K227" s="9">
         <v>9561661</v>
       </c>
       <c r="L227" s="9">
@@ -11574,7 +11538,7 @@
         <v>413610836</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A228" s="6">
         <v>105256553</v>
       </c>
@@ -11605,7 +11569,7 @@
       <c r="J228" s="9">
         <v>37504</v>
       </c>
-      <c r="K228" s="10">
+      <c r="K228" s="9">
         <v>1221629</v>
       </c>
       <c r="L228" s="9">
@@ -11615,7 +11579,7 @@
         <v>127954459</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A229" s="6">
         <v>105257602</v>
       </c>
@@ -11646,7 +11610,7 @@
       <c r="J229" s="9">
         <v>860919</v>
       </c>
-      <c r="K229" s="10">
+      <c r="K229" s="9">
         <v>28042964</v>
       </c>
       <c r="L229" s="9">
@@ -11656,7 +11620,7 @@
         <v>2003268608</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A230" s="6">
         <v>105258303</v>
       </c>
@@ -11687,7 +11651,7 @@
       <c r="J230" s="9">
         <v>279349</v>
       </c>
-      <c r="K230" s="10">
+      <c r="K230" s="9">
         <v>9099316</v>
       </c>
       <c r="L230" s="9">
@@ -11697,7 +11661,7 @@
         <v>258625808</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A231" s="6">
         <v>105258503</v>
       </c>
@@ -11728,7 +11692,7 @@
       <c r="J231" s="9">
         <v>19248</v>
       </c>
-      <c r="K231" s="10">
+      <c r="K231" s="9">
         <v>626971</v>
       </c>
       <c r="L231" s="9">
@@ -11738,7 +11702,7 @@
         <v>192568137</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A232" s="6">
         <v>105259103</v>
       </c>
@@ -11769,7 +11733,7 @@
       <c r="J232" s="9">
         <v>40950</v>
       </c>
-      <c r="K232" s="10">
+      <c r="K232" s="9">
         <v>1333876</v>
       </c>
       <c r="L232" s="9">
@@ -11779,7 +11743,7 @@
         <v>113265712</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <v>105259703</v>
       </c>
@@ -11810,7 +11774,7 @@
       <c r="J233" s="9">
         <v>148914</v>
       </c>
-      <c r="K233" s="10">
+      <c r="K233" s="9">
         <v>4850619</v>
       </c>
       <c r="L233" s="9">
@@ -11820,7 +11784,7 @@
         <v>245363096</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <v>101260303</v>
       </c>
@@ -11851,7 +11815,7 @@
       <c r="J234" s="9">
         <v>86739</v>
       </c>
-      <c r="K234" s="10">
+      <c r="K234" s="9">
         <v>2825375</v>
       </c>
       <c r="L234" s="9">
@@ -11861,7 +11825,7 @@
         <v>440149946</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <v>101260803</v>
       </c>
@@ -11892,7 +11856,7 @@
       <c r="J235" s="9">
         <v>12426</v>
       </c>
-      <c r="K235" s="10">
+      <c r="K235" s="9">
         <v>404756</v>
       </c>
       <c r="L235" s="9">
@@ -11902,7 +11866,7 @@
         <v>221314329</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A236" s="6">
         <v>101261302</v>
       </c>
@@ -11933,7 +11897,7 @@
       <c r="J236" s="9">
         <v>119581</v>
       </c>
-      <c r="K236" s="10">
+      <c r="K236" s="9">
         <v>3895147</v>
       </c>
       <c r="L236" s="9">
@@ -11943,7 +11907,7 @@
         <v>681909380</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <v>101262903</v>
       </c>
@@ -11974,7 +11938,7 @@
       <c r="J237" s="9">
         <v>21405</v>
       </c>
-      <c r="K237" s="10">
+      <c r="K237" s="9">
         <v>697231</v>
       </c>
       <c r="L237" s="9">
@@ -11984,7 +11948,7 @@
         <v>183582025</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <v>101264003</v>
       </c>
@@ -12015,7 +11979,7 @@
       <c r="J238" s="9">
         <v>66065</v>
       </c>
-      <c r="K238" s="10">
+      <c r="K238" s="9">
         <v>2151954</v>
       </c>
       <c r="L238" s="9">
@@ -12025,7 +11989,7 @@
         <v>500677614</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A239" s="6">
         <v>101268003</v>
       </c>
@@ -12056,7 +12020,7 @@
       <c r="J239" s="9">
         <v>114750</v>
       </c>
-      <c r="K239" s="10">
+      <c r="K239" s="9">
         <v>3737785</v>
       </c>
       <c r="L239" s="9">
@@ -12066,7 +12030,7 @@
         <v>476316416</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A240" s="6">
         <v>106272003</v>
       </c>
@@ -12097,7 +12061,7 @@
       <c r="J240" s="9">
         <v>14306</v>
       </c>
-      <c r="K240" s="10">
+      <c r="K240" s="9">
         <v>465993</v>
       </c>
       <c r="L240" s="9">
@@ -12107,7 +12071,7 @@
         <v>78519406</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A241" s="6">
         <v>112281302</v>
       </c>
@@ -12138,7 +12102,7 @@
       <c r="J241" s="9">
         <v>477462</v>
       </c>
-      <c r="K241" s="10">
+      <c r="K241" s="9">
         <v>15552508</v>
       </c>
       <c r="L241" s="9">
@@ -12148,7 +12112,7 @@
         <v>1739616388</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A242" s="6">
         <v>112282004</v>
       </c>
@@ -12179,7 +12143,7 @@
       <c r="J242" s="9">
         <v>8170</v>
       </c>
-      <c r="K242" s="10">
+      <c r="K242" s="9">
         <v>266124</v>
       </c>
       <c r="L242" s="9">
@@ -12189,7 +12153,7 @@
         <v>97303717</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A243" s="6">
         <v>112283003</v>
       </c>
@@ -12220,7 +12184,7 @@
       <c r="J243" s="9">
         <v>588391</v>
       </c>
-      <c r="K243" s="10">
+      <c r="K243" s="9">
         <v>19165831</v>
       </c>
       <c r="L243" s="9">
@@ -12230,7 +12194,7 @@
         <v>584194448</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <v>112286003</v>
       </c>
@@ -12261,7 +12225,7 @@
       <c r="J244" s="9">
         <v>272081</v>
       </c>
-      <c r="K244" s="10">
+      <c r="K244" s="9">
         <v>8862573</v>
       </c>
       <c r="L244" s="9">
@@ -12271,7 +12235,7 @@
         <v>436501196</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A245" s="6">
         <v>112289003</v>
       </c>
@@ -12302,7 +12266,7 @@
       <c r="J245" s="9">
         <v>218681</v>
       </c>
-      <c r="K245" s="10">
+      <c r="K245" s="9">
         <v>7123160</v>
       </c>
       <c r="L245" s="9">
@@ -12312,7 +12276,7 @@
         <v>742408909</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>111291304</v>
       </c>
@@ -12343,7 +12307,7 @@
       <c r="J246" s="9">
         <v>34882</v>
       </c>
-      <c r="K246" s="10">
+      <c r="K246" s="9">
         <v>1136221</v>
       </c>
       <c r="L246" s="9">
@@ -12353,7 +12317,7 @@
         <v>142094382</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <v>111292304</v>
       </c>
@@ -12384,7 +12348,7 @@
       <c r="J247" s="9">
         <v>11156</v>
       </c>
-      <c r="K247" s="10">
+      <c r="K247" s="9">
         <v>363388</v>
       </c>
       <c r="L247" s="9">
@@ -12394,7 +12358,7 @@
         <v>59412849</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>111297504</v>
       </c>
@@ -12425,7 +12389,7 @@
       <c r="J248" s="9">
         <v>113766</v>
       </c>
-      <c r="K248" s="10">
+      <c r="K248" s="9">
         <v>3705733</v>
       </c>
       <c r="L248" s="9">
@@ -12435,7 +12399,7 @@
         <v>125722164</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>101301303</v>
       </c>
@@ -12466,7 +12430,7 @@
       <c r="J249" s="9">
         <v>36205</v>
       </c>
-      <c r="K249" s="10">
+      <c r="K249" s="9">
         <v>1179316</v>
       </c>
       <c r="L249" s="9">
@@ -12476,7 +12440,7 @@
         <v>149807372</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <v>101301403</v>
       </c>
@@ -12507,7 +12471,7 @@
       <c r="J250" s="9">
         <v>84836</v>
       </c>
-      <c r="K250" s="10">
+      <c r="K250" s="9">
         <v>2763388</v>
       </c>
       <c r="L250" s="9">
@@ -12517,7 +12481,7 @@
         <v>348872563</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A251" s="6">
         <v>101303503</v>
       </c>
@@ -12548,7 +12512,7 @@
       <c r="J251" s="9">
         <v>13397</v>
       </c>
-      <c r="K251" s="10">
+      <c r="K251" s="9">
         <v>436384</v>
       </c>
       <c r="L251" s="9">
@@ -12558,7 +12522,7 @@
         <v>130980135</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A252" s="6">
         <v>101306503</v>
       </c>
@@ -12589,7 +12553,7 @@
       <c r="J252" s="9">
         <v>400313</v>
       </c>
-      <c r="K252" s="10">
+      <c r="K252" s="9">
         <v>13039511</v>
       </c>
       <c r="L252" s="9">
@@ -12599,7 +12563,7 @@
         <v>99632594</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A253" s="6">
         <v>101308503</v>
       </c>
@@ -12630,7 +12594,7 @@
       <c r="J253" s="9">
         <v>14562</v>
       </c>
-      <c r="K253" s="10">
+      <c r="K253" s="9">
         <v>474332</v>
       </c>
       <c r="L253" s="9">
@@ -12640,7 +12604,7 @@
         <v>181284667</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A254" s="6">
         <v>111312503</v>
       </c>
@@ -12671,7 +12635,7 @@
       <c r="J254" s="9">
         <v>70337</v>
       </c>
-      <c r="K254" s="10">
+      <c r="K254" s="9">
         <v>2291107</v>
       </c>
       <c r="L254" s="9">
@@ -12681,7 +12645,7 @@
         <v>331713219</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A255" s="6">
         <v>111312804</v>
       </c>
@@ -12712,7 +12676,7 @@
       <c r="J255" s="9">
         <v>32839</v>
       </c>
-      <c r="K255" s="10">
+      <c r="K255" s="9">
         <v>1069674</v>
       </c>
       <c r="L255" s="9">
@@ -12722,7 +12686,7 @@
         <v>108800118</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <v>111316003</v>
       </c>
@@ -12753,7 +12717,7 @@
       <c r="J256" s="9">
         <v>133285</v>
       </c>
-      <c r="K256" s="10">
+      <c r="K256" s="9">
         <v>4341531</v>
       </c>
       <c r="L256" s="9">
@@ -12763,7 +12727,7 @@
         <v>163901096</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>111317503</v>
       </c>
@@ -12794,7 +12758,7 @@
       <c r="J257" s="9">
         <v>36752</v>
       </c>
-      <c r="K257" s="10">
+      <c r="K257" s="9">
         <v>1197134</v>
       </c>
       <c r="L257" s="9">
@@ -12804,7 +12768,7 @@
         <v>155788572</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <v>128321103</v>
       </c>
@@ -12835,7 +12799,7 @@
       <c r="J258" s="9">
         <v>304934</v>
       </c>
-      <c r="K258" s="10">
+      <c r="K258" s="9">
         <v>9932704</v>
       </c>
       <c r="L258" s="9">
@@ -12845,7 +12809,7 @@
         <v>292924404</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A259" s="6">
         <v>128323303</v>
       </c>
@@ -12876,7 +12840,7 @@
       <c r="J259" s="9">
         <v>15011</v>
       </c>
-      <c r="K259" s="10">
+      <c r="K259" s="9">
         <v>488958</v>
       </c>
       <c r="L259" s="9">
@@ -12886,7 +12850,7 @@
         <v>130162835</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <v>128323703</v>
       </c>
@@ -12917,7 +12881,7 @@
       <c r="J260" s="9">
         <v>104960</v>
       </c>
-      <c r="K260" s="10">
+      <c r="K260" s="9">
         <v>3418893</v>
       </c>
       <c r="L260" s="9">
@@ -12927,7 +12891,7 @@
         <v>621033383</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>128325203</v>
       </c>
@@ -12958,7 +12922,7 @@
       <c r="J261" s="9">
         <v>10240</v>
       </c>
-      <c r="K261" s="10">
+      <c r="K261" s="9">
         <v>333550</v>
       </c>
       <c r="L261" s="9">
@@ -12968,7 +12932,7 @@
         <v>220178206</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <v>128326303</v>
       </c>
@@ -12999,7 +12963,7 @@
       <c r="J262" s="9">
         <v>9391</v>
       </c>
-      <c r="K262" s="10">
+      <c r="K262" s="9">
         <v>305896</v>
       </c>
       <c r="L262" s="9">
@@ -13009,7 +12973,7 @@
         <v>120623817</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A263" s="6">
         <v>128327303</v>
       </c>
@@ -13040,7 +13004,7 @@
       <c r="J263" s="9">
         <v>10271</v>
       </c>
-      <c r="K263" s="10">
+      <c r="K263" s="9">
         <v>334560</v>
       </c>
       <c r="L263" s="9">
@@ -13050,7 +13014,7 @@
         <v>121036546</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <v>128328003</v>
       </c>
@@ -13081,7 +13045,7 @@
       <c r="J264" s="9">
         <v>23800</v>
       </c>
-      <c r="K264" s="10">
+      <c r="K264" s="9">
         <v>775244</v>
       </c>
       <c r="L264" s="9">
@@ -13091,7 +13055,7 @@
         <v>156891002</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265" s="6">
         <v>106330703</v>
       </c>
@@ -13122,7 +13086,7 @@
       <c r="J265" s="9">
         <v>18829</v>
       </c>
-      <c r="K265" s="10">
+      <c r="K265" s="9">
         <v>613322</v>
       </c>
       <c r="L265" s="9">
@@ -13132,7 +13096,7 @@
         <v>171668933</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <v>106330803</v>
       </c>
@@ -13163,7 +13127,7 @@
       <c r="J266" s="9">
         <v>38835</v>
       </c>
-      <c r="K266" s="10">
+      <c r="K266" s="9">
         <v>1264984</v>
       </c>
       <c r="L266" s="9">
@@ -13173,7 +13137,7 @@
         <v>245316797</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="6">
         <v>106338003</v>
       </c>
@@ -13204,7 +13168,7 @@
       <c r="J267" s="9">
         <v>54006</v>
       </c>
-      <c r="K267" s="10">
+      <c r="K267" s="9">
         <v>1759153</v>
       </c>
       <c r="L267" s="9">
@@ -13214,7 +13178,7 @@
         <v>409362189</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <v>111343603</v>
       </c>
@@ -13245,7 +13209,7 @@
       <c r="J268" s="9">
         <v>49828</v>
       </c>
-      <c r="K268" s="10">
+      <c r="K268" s="9">
         <v>1623062</v>
       </c>
       <c r="L268" s="9">
@@ -13255,7 +13219,7 @@
         <v>519477680</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A269" s="6">
         <v>119350303</v>
       </c>
@@ -13286,7 +13250,7 @@
       <c r="J269" s="9">
         <v>910174</v>
       </c>
-      <c r="K269" s="10">
+      <c r="K269" s="9">
         <v>29647362</v>
       </c>
       <c r="L269" s="9">
@@ -13296,7 +13260,7 @@
         <v>1124323106</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A270" s="6">
         <v>119351303</v>
       </c>
@@ -13327,7 +13291,7 @@
       <c r="J270" s="9">
         <v>74060</v>
       </c>
-      <c r="K270" s="10">
+      <c r="K270" s="9">
         <v>2412378</v>
       </c>
       <c r="L270" s="9">
@@ -13337,7 +13301,7 @@
         <v>193045038</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
         <v>119352203</v>
       </c>
@@ -13368,7 +13332,7 @@
       <c r="J271" s="9">
         <v>84070</v>
       </c>
-      <c r="K271" s="10">
+      <c r="K271" s="9">
         <v>2738436</v>
       </c>
       <c r="L271" s="9">
@@ -13378,7 +13342,7 @@
         <v>392613218</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>119354603</v>
       </c>
@@ -13409,7 +13373,7 @@
       <c r="J272" s="9">
         <v>149396</v>
       </c>
-      <c r="K272" s="10">
+      <c r="K272" s="9">
         <v>4866319</v>
       </c>
       <c r="L272" s="9">
@@ -13419,7 +13383,7 @@
         <v>320863061</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <v>119355503</v>
       </c>
@@ -13450,7 +13414,7 @@
       <c r="J273" s="9">
         <v>72684</v>
       </c>
-      <c r="K273" s="10">
+      <c r="K273" s="9">
         <v>2367557</v>
       </c>
       <c r="L273" s="9">
@@ -13460,7 +13424,7 @@
         <v>336452085</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <v>119356503</v>
       </c>
@@ -13491,7 +13455,7 @@
       <c r="J274" s="9">
         <v>488392</v>
       </c>
-      <c r="K274" s="10">
+      <c r="K274" s="9">
         <v>15908534</v>
       </c>
       <c r="L274" s="9">
@@ -13501,7 +13465,7 @@
         <v>622886317</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <v>119356603</v>
       </c>
@@ -13532,7 +13496,7 @@
       <c r="J275" s="9">
         <v>22510</v>
       </c>
-      <c r="K275" s="10">
+      <c r="K275" s="9">
         <v>733225</v>
       </c>
       <c r="L275" s="9">
@@ -13542,7 +13506,7 @@
         <v>219625306</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <v>119357003</v>
       </c>
@@ -13573,7 +13537,7 @@
       <c r="J276" s="9">
         <v>86455</v>
       </c>
-      <c r="K276" s="10">
+      <c r="K276" s="9">
         <v>2816124</v>
       </c>
       <c r="L276" s="9">
@@ -13583,7 +13547,7 @@
         <v>336742517</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A277" s="6">
         <v>119357402</v>
       </c>
@@ -13614,7 +13578,7 @@
       <c r="J277" s="9">
         <v>407843</v>
       </c>
-      <c r="K277" s="10">
+      <c r="K277" s="9">
         <v>13284788</v>
       </c>
       <c r="L277" s="9">
@@ -13624,7 +13588,7 @@
         <v>1174104978</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
         <v>119358403</v>
       </c>
@@ -13655,7 +13619,7 @@
       <c r="J278" s="9">
         <v>129380</v>
       </c>
-      <c r="K278" s="10">
+      <c r="K278" s="9">
         <v>4214332</v>
       </c>
       <c r="L278" s="9">
@@ -13665,7 +13629,7 @@
         <v>477084066</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
         <v>113361303</v>
       </c>
@@ -13696,7 +13660,7 @@
       <c r="J279" s="9">
         <v>376071</v>
       </c>
-      <c r="K279" s="10">
+      <c r="K279" s="9">
         <v>12249870</v>
       </c>
       <c r="L279" s="9">
@@ -13706,7 +13670,7 @@
         <v>759387014</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <v>113361503</v>
       </c>
@@ -13737,7 +13701,7 @@
       <c r="J280" s="9">
         <v>22138</v>
       </c>
-      <c r="K280" s="10">
+      <c r="K280" s="9">
         <v>721107</v>
       </c>
       <c r="L280" s="9">
@@ -13747,7 +13711,7 @@
         <v>200465684</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <v>113361703</v>
       </c>
@@ -13778,7 +13742,7 @@
       <c r="J281" s="9">
         <v>1208258</v>
       </c>
-      <c r="K281" s="10">
+      <c r="K281" s="9">
         <v>39356938</v>
       </c>
       <c r="L281" s="9">
@@ -13788,7 +13752,7 @@
         <v>1085243396</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <v>113362203</v>
       </c>
@@ -13819,7 +13783,7 @@
       <c r="J282" s="9">
         <v>115513</v>
       </c>
-      <c r="K282" s="10">
+      <c r="K282" s="9">
         <v>3762638</v>
       </c>
       <c r="L282" s="9">
@@ -13829,7 +13793,7 @@
         <v>658883394</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <v>113362303</v>
       </c>
@@ -13860,7 +13824,7 @@
       <c r="J283" s="9">
         <v>426042</v>
       </c>
-      <c r="K283" s="10">
+      <c r="K283" s="9">
         <v>13877590</v>
       </c>
       <c r="L283" s="9">
@@ -13870,7 +13834,7 @@
         <v>976316729</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A284" s="6">
         <v>113362403</v>
       </c>
@@ -13901,7 +13865,7 @@
       <c r="J284" s="9">
         <v>309005</v>
       </c>
-      <c r="K284" s="10">
+      <c r="K284" s="9">
         <v>10065309</v>
       </c>
       <c r="L284" s="9">
@@ -13911,7 +13875,7 @@
         <v>928360201</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A285" s="6">
         <v>113362603</v>
       </c>
@@ -13942,7 +13906,7 @@
       <c r="J285" s="9">
         <v>237457</v>
       </c>
-      <c r="K285" s="10">
+      <c r="K285" s="9">
         <v>7734756</v>
       </c>
       <c r="L285" s="9">
@@ -13952,7 +13916,7 @@
         <v>1014547680</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <v>113363103</v>
       </c>
@@ -13983,7 +13947,7 @@
       <c r="J286" s="9">
         <v>742530</v>
       </c>
-      <c r="K286" s="10">
+      <c r="K286" s="9">
         <v>24186645</v>
       </c>
       <c r="L286" s="9">
@@ -13993,7 +13957,7 @@
         <v>1942704474</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <v>113363603</v>
       </c>
@@ -14024,7 +13988,7 @@
       <c r="J287" s="9">
         <v>507902</v>
       </c>
-      <c r="K287" s="10">
+      <c r="K287" s="9">
         <v>16544039</v>
       </c>
       <c r="L287" s="9">
@@ -14034,7 +13998,7 @@
         <v>802064869</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <v>113364002</v>
       </c>
@@ -14065,7 +14029,7 @@
       <c r="J288" s="9">
         <v>707224</v>
       </c>
-      <c r="K288" s="10">
+      <c r="K288" s="9">
         <v>23036612</v>
       </c>
       <c r="L288" s="9">
@@ -14075,7 +14039,7 @@
         <v>1780253577</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>113364403</v>
       </c>
@@ -14106,7 +14070,7 @@
       <c r="J289" s="9">
         <v>198535</v>
       </c>
-      <c r="K289" s="10">
+      <c r="K289" s="9">
         <v>6466938</v>
       </c>
       <c r="L289" s="9">
@@ -14116,7 +14080,7 @@
         <v>815837732</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A290" s="6">
         <v>113364503</v>
       </c>
@@ -14147,7 +14111,7 @@
       <c r="J290" s="9">
         <v>975108</v>
       </c>
-      <c r="K290" s="10">
+      <c r="K290" s="9">
         <v>31762476</v>
       </c>
       <c r="L290" s="9">
@@ -14157,7 +14121,7 @@
         <v>1859752413</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A291" s="6">
         <v>113365203</v>
       </c>
@@ -14188,7 +14152,7 @@
       <c r="J291" s="9">
         <v>560584</v>
       </c>
-      <c r="K291" s="10">
+      <c r="K291" s="9">
         <v>18260065</v>
       </c>
       <c r="L291" s="9">
@@ -14198,7 +14162,7 @@
         <v>1239883593</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
         <v>113365303</v>
       </c>
@@ -14229,7 +14193,7 @@
       <c r="J292" s="9">
         <v>774036</v>
       </c>
-      <c r="K292" s="10">
+      <c r="K292" s="9">
         <v>25212899</v>
       </c>
       <c r="L292" s="9">
@@ -14239,7 +14203,7 @@
         <v>595574047</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
         <v>113367003</v>
       </c>
@@ -14270,7 +14234,7 @@
       <c r="J293" s="9">
         <v>645762</v>
       </c>
-      <c r="K293" s="10">
+      <c r="K293" s="9">
         <v>21034593</v>
       </c>
       <c r="L293" s="9">
@@ -14280,7 +14244,7 @@
         <v>737671493</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
         <v>113369003</v>
       </c>
@@ -14311,7 +14275,7 @@
       <c r="J294" s="9">
         <v>956470</v>
       </c>
-      <c r="K294" s="10">
+      <c r="K294" s="9">
         <v>31155375</v>
       </c>
       <c r="L294" s="9">
@@ -14321,7 +14285,7 @@
         <v>1198139476</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <v>104372003</v>
       </c>
@@ -14352,7 +14316,7 @@
       <c r="J295" s="9">
         <v>707473</v>
       </c>
-      <c r="K295" s="10">
+      <c r="K295" s="9">
         <v>23044723</v>
       </c>
       <c r="L295" s="9">
@@ -14362,7 +14326,7 @@
         <v>322104624</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <v>104374003</v>
       </c>
@@ -14393,7 +14357,7 @@
       <c r="J296" s="9">
         <v>35618</v>
       </c>
-      <c r="K296" s="10">
+      <c r="K296" s="9">
         <v>1160195</v>
       </c>
       <c r="L296" s="9">
@@ -14403,7 +14367,7 @@
         <v>192268459</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <v>104375003</v>
       </c>
@@ -14434,7 +14398,7 @@
       <c r="J297" s="9">
         <v>11649</v>
       </c>
-      <c r="K297" s="10">
+      <c r="K297" s="9">
         <v>379446</v>
       </c>
       <c r="L297" s="9">
@@ -14444,7 +14408,7 @@
         <v>249975972</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <v>104375203</v>
       </c>
@@ -14475,7 +14439,7 @@
       <c r="J298" s="9">
         <v>120317</v>
       </c>
-      <c r="K298" s="10">
+      <c r="K298" s="9">
         <v>3919121</v>
       </c>
       <c r="L298" s="9">
@@ -14485,7 +14449,7 @@
         <v>332916111</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
         <v>104375302</v>
       </c>
@@ -14516,7 +14480,7 @@
       <c r="J299" s="9">
         <v>32853</v>
       </c>
-      <c r="K299" s="10">
+      <c r="K299" s="9">
         <v>1070130</v>
       </c>
       <c r="L299" s="9">
@@ -14526,7 +14490,7 @@
         <v>332125322</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
         <v>104376203</v>
       </c>
@@ -14557,7 +14521,7 @@
       <c r="J300" s="9">
         <v>27058</v>
       </c>
-      <c r="K300" s="10">
+      <c r="K300" s="9">
         <v>881368</v>
       </c>
       <c r="L300" s="9">
@@ -14567,7 +14531,7 @@
         <v>197920563</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
         <v>104377003</v>
       </c>
@@ -14598,7 +14562,7 @@
       <c r="J301" s="9">
         <v>21984</v>
       </c>
-      <c r="K301" s="10">
+      <c r="K301" s="9">
         <v>716091</v>
       </c>
       <c r="L301" s="9">
@@ -14608,7 +14572,7 @@
         <v>97268751</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A302" s="6">
         <v>104378003</v>
       </c>
@@ -14639,7 +14603,7 @@
       <c r="J302" s="9">
         <v>55516</v>
       </c>
-      <c r="K302" s="10">
+      <c r="K302" s="9">
         <v>1808339</v>
       </c>
       <c r="L302" s="9">
@@ -14649,7 +14613,7 @@
         <v>243689569</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A303" s="6">
         <v>113380303</v>
       </c>
@@ -14680,7 +14644,7 @@
       <c r="J303" s="9">
         <v>45423</v>
       </c>
-      <c r="K303" s="10">
+      <c r="K303" s="9">
         <v>1479577</v>
       </c>
       <c r="L303" s="9">
@@ -14690,7 +14654,7 @@
         <v>317595305</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <v>113381303</v>
       </c>
@@ -14721,7 +14685,7 @@
       <c r="J304" s="9">
         <v>195964</v>
       </c>
-      <c r="K304" s="10">
+      <c r="K304" s="9">
         <v>6383192</v>
       </c>
       <c r="L304" s="9">
@@ -14731,7 +14695,7 @@
         <v>1107484952</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <v>113382303</v>
       </c>
@@ -14762,7 +14726,7 @@
       <c r="J305" s="9">
         <v>194945</v>
       </c>
-      <c r="K305" s="10">
+      <c r="K305" s="9">
         <v>6350000</v>
       </c>
       <c r="L305" s="9">
@@ -14772,7 +14736,7 @@
         <v>589190030</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <v>113384603</v>
       </c>
@@ -14803,7 +14767,7 @@
       <c r="J306" s="9">
         <v>50830</v>
       </c>
-      <c r="K306" s="10">
+      <c r="K306" s="9">
         <v>1655700</v>
       </c>
       <c r="L306" s="9">
@@ -14813,7 +14777,7 @@
         <v>402262707</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <v>113385003</v>
       </c>
@@ -14844,7 +14808,7 @@
       <c r="J307" s="9">
         <v>170957</v>
       </c>
-      <c r="K307" s="10">
+      <c r="K307" s="9">
         <v>5568632</v>
       </c>
       <c r="L307" s="9">
@@ -14854,7 +14818,7 @@
         <v>489872479</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A308" s="6">
         <v>113385303</v>
       </c>
@@ -14885,7 +14849,7 @@
       <c r="J308" s="9">
         <v>93180</v>
       </c>
-      <c r="K308" s="10">
+      <c r="K308" s="9">
         <v>3035179</v>
       </c>
       <c r="L308" s="9">
@@ -14895,7 +14859,7 @@
         <v>791404793</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <v>121390302</v>
       </c>
@@ -14926,7 +14890,7 @@
       <c r="J309" s="9">
         <v>877048</v>
       </c>
-      <c r="K309" s="10">
+      <c r="K309" s="9">
         <v>28568339</v>
       </c>
       <c r="L309" s="9">
@@ -14936,7 +14900,7 @@
         <v>1973810238</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <v>121391303</v>
       </c>
@@ -14967,7 +14931,7 @@
       <c r="J310" s="9">
         <v>79052</v>
       </c>
-      <c r="K310" s="10">
+      <c r="K310" s="9">
         <v>2574984</v>
       </c>
       <c r="L310" s="9">
@@ -14977,7 +14941,7 @@
         <v>242494346</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A311" s="6">
         <v>121392303</v>
       </c>
@@ -15008,7 +14972,7 @@
       <c r="J311" s="9">
         <v>1130051</v>
       </c>
-      <c r="K311" s="10">
+      <c r="K311" s="9">
         <v>36809479</v>
       </c>
       <c r="L311" s="9">
@@ -15018,7 +14982,7 @@
         <v>2306541993</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <v>121394503</v>
       </c>
@@ -15049,7 +15013,7 @@
       <c r="J312" s="9">
         <v>51090</v>
       </c>
-      <c r="K312" s="10">
+      <c r="K312" s="9">
         <v>1664169</v>
       </c>
       <c r="L312" s="9">
@@ -15059,7 +15023,7 @@
         <v>308720639</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <v>121394603</v>
       </c>
@@ -15090,7 +15054,7 @@
       <c r="J313" s="9">
         <v>366640</v>
       </c>
-      <c r="K313" s="10">
+      <c r="K313" s="9">
         <v>11942671</v>
       </c>
       <c r="L313" s="9">
@@ -15100,7 +15064,7 @@
         <v>587658267</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <v>121395103</v>
       </c>
@@ -15131,7 +15095,7 @@
       <c r="J314" s="9">
         <v>1484942</v>
       </c>
-      <c r="K314" s="10">
+      <c r="K314" s="9">
         <v>48369446</v>
       </c>
       <c r="L314" s="9">
@@ -15141,7 +15105,7 @@
         <v>2738120809</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A315" s="6">
         <v>121395603</v>
       </c>
@@ -15172,7 +15136,7 @@
       <c r="J315" s="9">
         <v>209197</v>
       </c>
-      <c r="K315" s="10">
+      <c r="K315" s="9">
         <v>6814235</v>
       </c>
       <c r="L315" s="9">
@@ -15182,7 +15146,7 @@
         <v>596404259</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A316" s="6">
         <v>121395703</v>
       </c>
@@ -15213,7 +15177,7 @@
       <c r="J316" s="9">
         <v>932540</v>
       </c>
-      <c r="K316" s="10">
+      <c r="K316" s="9">
         <v>30375896</v>
       </c>
       <c r="L316" s="9">
@@ -15223,7 +15187,7 @@
         <v>1268906845</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A317" s="6">
         <v>121397803</v>
       </c>
@@ -15254,7 +15218,7 @@
       <c r="J317" s="9">
         <v>253689</v>
       </c>
-      <c r="K317" s="10">
+      <c r="K317" s="9">
         <v>8263485</v>
       </c>
       <c r="L317" s="9">
@@ -15264,7 +15228,7 @@
         <v>797659711</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A318" s="6">
         <v>118401403</v>
       </c>
@@ -15295,7 +15259,7 @@
       <c r="J318" s="9">
         <v>240955</v>
       </c>
-      <c r="K318" s="10">
+      <c r="K318" s="9">
         <v>7848697</v>
       </c>
       <c r="L318" s="9">
@@ -15305,7 +15269,7 @@
         <v>725140260</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A319" s="6">
         <v>118401603</v>
       </c>
@@ -15336,7 +15300,7 @@
       <c r="J319" s="9">
         <v>438362</v>
       </c>
-      <c r="K319" s="10">
+      <c r="K319" s="9">
         <v>14278893</v>
       </c>
       <c r="L319" s="9">
@@ -15346,7 +15310,7 @@
         <v>842416309</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <v>118402603</v>
       </c>
@@ -15377,7 +15341,7 @@
       <c r="J320" s="9">
         <v>56026</v>
       </c>
-      <c r="K320" s="10">
+      <c r="K320" s="9">
         <v>1824951</v>
       </c>
       <c r="L320" s="9">
@@ -15387,7 +15351,7 @@
         <v>305910476</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A321" s="6">
         <v>118403003</v>
       </c>
@@ -15418,7 +15382,7 @@
       <c r="J321" s="9">
         <v>56460</v>
       </c>
-      <c r="K321" s="10">
+      <c r="K321" s="9">
         <v>1839088</v>
       </c>
       <c r="L321" s="9">
@@ -15428,7 +15392,7 @@
         <v>313898710</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A322" s="6">
         <v>118403302</v>
       </c>
@@ -15459,7 +15423,7 @@
       <c r="J322" s="9">
         <v>522470</v>
       </c>
-      <c r="K322" s="10">
+      <c r="K322" s="9">
         <v>17018567</v>
       </c>
       <c r="L322" s="9">
@@ -15469,7 +15433,7 @@
         <v>1566144272</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A323" s="6">
         <v>118403903</v>
       </c>
@@ -15500,7 +15464,7 @@
       <c r="J323" s="9">
         <v>216452</v>
       </c>
-      <c r="K323" s="10">
+      <c r="K323" s="9">
         <v>7050554</v>
       </c>
       <c r="L323" s="9">
@@ -15510,7 +15474,7 @@
         <v>436633465</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A324" s="6">
         <v>118406003</v>
       </c>
@@ -15541,7 +15505,7 @@
       <c r="J324" s="9">
         <v>53522</v>
       </c>
-      <c r="K324" s="10">
+      <c r="K324" s="9">
         <v>1743388</v>
       </c>
       <c r="L324" s="9">
@@ -15551,7 +15515,7 @@
         <v>190050671</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A325" s="6">
         <v>118406602</v>
       </c>
@@ -15582,7 +15546,7 @@
       <c r="J325" s="9">
         <v>148449</v>
       </c>
-      <c r="K325" s="10">
+      <c r="K325" s="9">
         <v>4835472</v>
       </c>
       <c r="L325" s="9">
@@ -15592,7 +15556,7 @@
         <v>684141361</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A326" s="6">
         <v>118408852</v>
       </c>
@@ -15623,7 +15587,7 @@
       <c r="J326" s="9">
         <v>326280</v>
       </c>
-      <c r="K326" s="10">
+      <c r="K326" s="9">
         <v>10628013</v>
       </c>
       <c r="L326" s="9">
@@ -15633,7 +15597,7 @@
         <v>1113086196</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A327" s="6">
         <v>118409203</v>
       </c>
@@ -15664,7 +15628,7 @@
       <c r="J327" s="9">
         <v>185154</v>
       </c>
-      <c r="K327" s="10">
+      <c r="K327" s="9">
         <v>6031075</v>
       </c>
       <c r="L327" s="9">
@@ -15674,7 +15638,7 @@
         <v>468743026</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A328" s="6">
         <v>118409302</v>
       </c>
@@ -15705,7 +15669,7 @@
       <c r="J328" s="9">
         <v>265687</v>
       </c>
-      <c r="K328" s="10">
+      <c r="K328" s="9">
         <v>8654300</v>
       </c>
       <c r="L328" s="9">
@@ -15715,7 +15679,7 @@
         <v>882889252</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A329" s="6">
         <v>117412003</v>
       </c>
@@ -15746,7 +15710,7 @@
       <c r="J329" s="9">
         <v>34219</v>
       </c>
-      <c r="K329" s="10">
+      <c r="K329" s="9">
         <v>1114625</v>
       </c>
       <c r="L329" s="9">
@@ -15756,7 +15720,7 @@
         <v>267412835</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A330" s="6">
         <v>117414003</v>
       </c>
@@ -15787,7 +15751,7 @@
       <c r="J330" s="9">
         <v>70489</v>
       </c>
-      <c r="K330" s="10">
+      <c r="K330" s="9">
         <v>2296059</v>
       </c>
       <c r="L330" s="9">
@@ -15797,7 +15761,7 @@
         <v>388219227</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <v>117414203</v>
       </c>
@@ -15828,7 +15792,7 @@
       <c r="J331" s="9">
         <v>202587</v>
       </c>
-      <c r="K331" s="10">
+      <c r="K331" s="9">
         <v>6598925</v>
       </c>
       <c r="L331" s="9">
@@ -15838,7 +15802,7 @@
         <v>376582512</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A332" s="6">
         <v>117415004</v>
       </c>
@@ -15869,7 +15833,7 @@
       <c r="J332" s="9">
         <v>42345</v>
       </c>
-      <c r="K332" s="10">
+      <c r="K332" s="9">
         <v>1379316</v>
       </c>
       <c r="L332" s="9">
@@ -15879,7 +15843,7 @@
         <v>139274598</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>117415103</v>
       </c>
@@ -15910,7 +15874,7 @@
       <c r="J333" s="9">
         <v>82699</v>
       </c>
-      <c r="K333" s="10">
+      <c r="K333" s="9">
         <v>2693779</v>
       </c>
       <c r="L333" s="9">
@@ -15920,7 +15884,7 @@
         <v>389930908</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A334" s="6">
         <v>117415303</v>
       </c>
@@ -15951,7 +15915,7 @@
       <c r="J334" s="9">
         <v>29927</v>
       </c>
-      <c r="K334" s="10">
+      <c r="K334" s="9">
         <v>974821</v>
       </c>
       <c r="L334" s="9">
@@ -15961,7 +15925,7 @@
         <v>171911132</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A335" s="6">
         <v>117416103</v>
       </c>
@@ -15992,7 +15956,7 @@
       <c r="J335" s="9">
         <v>22844</v>
       </c>
-      <c r="K335" s="10">
+      <c r="K335" s="9">
         <v>744104</v>
       </c>
       <c r="L335" s="9">
@@ -16002,7 +15966,7 @@
         <v>217204302</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <v>117417202</v>
       </c>
@@ -16033,7 +15997,7 @@
       <c r="J336" s="9">
         <v>116452</v>
       </c>
-      <c r="K336" s="10">
+      <c r="K336" s="9">
         <v>3793225</v>
       </c>
       <c r="L336" s="9">
@@ -16043,7 +16007,7 @@
         <v>732854390</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A337" s="6">
         <v>109420803</v>
       </c>
@@ -16074,7 +16038,7 @@
       <c r="J337" s="9">
         <v>945753</v>
       </c>
-      <c r="K337" s="10">
+      <c r="K337" s="9">
         <v>30806287</v>
       </c>
       <c r="L337" s="9">
@@ -16084,7 +16048,7 @@
         <v>338742013</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>109422303</v>
       </c>
@@ -16115,7 +16079,7 @@
       <c r="J338" s="9">
         <v>57619</v>
       </c>
-      <c r="K338" s="10">
+      <c r="K338" s="9">
         <v>1876840</v>
       </c>
       <c r="L338" s="9">
@@ -16125,7 +16089,7 @@
         <v>147743941</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A339" s="6">
         <v>109426003</v>
       </c>
@@ -16156,7 +16120,7 @@
       <c r="J339" s="9">
         <v>583399</v>
       </c>
-      <c r="K339" s="10">
+      <c r="K339" s="9">
         <v>19003225</v>
       </c>
       <c r="L339" s="9">
@@ -16166,7 +16130,7 @@
         <v>61412622</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <v>109426303</v>
       </c>
@@ -16197,7 +16161,7 @@
       <c r="J340" s="9">
         <v>213250</v>
       </c>
-      <c r="K340" s="10">
+      <c r="K340" s="9">
         <v>6946254</v>
       </c>
       <c r="L340" s="9">
@@ -16207,7 +16171,7 @@
         <v>97600376</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>109427503</v>
       </c>
@@ -16238,7 +16202,7 @@
       <c r="J341" s="9">
         <v>208404</v>
       </c>
-      <c r="K341" s="10">
+      <c r="K341" s="9">
         <v>6788404</v>
       </c>
       <c r="L341" s="9">
@@ -16248,7 +16212,7 @@
         <v>104477551</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A342" s="6">
         <v>104431304</v>
       </c>
@@ -16279,7 +16243,7 @@
       <c r="J342" s="9">
         <v>12172</v>
       </c>
-      <c r="K342" s="10">
+      <c r="K342" s="9">
         <v>396482</v>
       </c>
       <c r="L342" s="9">
@@ -16289,7 +16253,7 @@
         <v>83023624</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A343" s="6">
         <v>104432503</v>
       </c>
@@ -16320,7 +16284,7 @@
       <c r="J343" s="9">
         <v>4287</v>
       </c>
-      <c r="K343" s="10">
+      <c r="K343" s="9">
         <v>139642</v>
       </c>
       <c r="L343" s="9">
@@ -16330,7 +16294,7 @@
         <v>59995269</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A344" s="6">
         <v>104432803</v>
       </c>
@@ -16361,7 +16325,7 @@
       <c r="J344" s="9">
         <v>25254</v>
       </c>
-      <c r="K344" s="10">
+      <c r="K344" s="9">
         <v>822606</v>
       </c>
       <c r="L344" s="9">
@@ -16371,7 +16335,7 @@
         <v>194605014</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A345" s="6">
         <v>104432903</v>
       </c>
@@ -16402,7 +16366,7 @@
       <c r="J345" s="9">
         <v>53287</v>
       </c>
-      <c r="K345" s="10">
+      <c r="K345" s="9">
         <v>1735733</v>
       </c>
       <c r="L345" s="9">
@@ -16412,7 +16376,7 @@
         <v>390302306</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A346" s="6">
         <v>104433303</v>
       </c>
@@ -16443,7 +16407,7 @@
       <c r="J346" s="9">
         <v>161152</v>
       </c>
-      <c r="K346" s="10">
+      <c r="K346" s="9">
         <v>5249251</v>
       </c>
       <c r="L346" s="9">
@@ -16453,7 +16417,7 @@
         <v>455321827</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A347" s="6">
         <v>104433604</v>
       </c>
@@ -16484,7 +16448,7 @@
       <c r="J347" s="9">
         <v>14219</v>
       </c>
-      <c r="K347" s="10">
+      <c r="K347" s="9">
         <v>463160</v>
       </c>
       <c r="L347" s="9">
@@ -16494,7 +16458,7 @@
         <v>74466037</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A348" s="6">
         <v>104433903</v>
       </c>
@@ -16525,7 +16489,7 @@
       <c r="J348" s="9">
         <v>34760</v>
       </c>
-      <c r="K348" s="10">
+      <c r="K348" s="9">
         <v>1132248</v>
       </c>
       <c r="L348" s="9">
@@ -16535,7 +16499,7 @@
         <v>189522370</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A349" s="6">
         <v>104435003</v>
       </c>
@@ -16566,7 +16530,7 @@
       <c r="J349" s="9">
         <v>56112</v>
       </c>
-      <c r="K349" s="10">
+      <c r="K349" s="9">
         <v>1827752</v>
       </c>
       <c r="L349" s="9">
@@ -16576,7 +16540,7 @@
         <v>209820433</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A350" s="6">
         <v>104435303</v>
       </c>
@@ -16607,7 +16571,7 @@
       <c r="J350" s="9">
         <v>31665</v>
       </c>
-      <c r="K350" s="10">
+      <c r="K350" s="9">
         <v>1031433</v>
       </c>
       <c r="L350" s="9">
@@ -16617,7 +16581,7 @@
         <v>163617316</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A351" s="6">
         <v>104435603</v>
       </c>
@@ -16648,7 +16612,7 @@
       <c r="J351" s="9">
         <v>74876</v>
       </c>
-      <c r="K351" s="10">
+      <c r="K351" s="9">
         <v>2438958</v>
       </c>
       <c r="L351" s="9">
@@ -16658,7 +16622,7 @@
         <v>186245785</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A352" s="6">
         <v>104435703</v>
       </c>
@@ -16689,7 +16653,7 @@
       <c r="J352" s="9">
         <v>16485</v>
       </c>
-      <c r="K352" s="10">
+      <c r="K352" s="9">
         <v>536971</v>
       </c>
       <c r="L352" s="9">
@@ -16699,7 +16663,7 @@
         <v>171992803</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A353" s="6">
         <v>104437503</v>
       </c>
@@ -16730,7 +16694,7 @@
       <c r="J353" s="9">
         <v>26220</v>
       </c>
-      <c r="K353" s="10">
+      <c r="K353" s="9">
         <v>854072</v>
       </c>
       <c r="L353" s="9">
@@ -16740,7 +16704,7 @@
         <v>157127535</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>111444602</v>
       </c>
@@ -16771,7 +16735,7 @@
       <c r="J354" s="9">
         <v>56278</v>
       </c>
-      <c r="K354" s="10">
+      <c r="K354" s="9">
         <v>1833160</v>
       </c>
       <c r="L354" s="9">
@@ -16781,7 +16745,7 @@
         <v>891591092</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A355" s="6">
         <v>120452003</v>
       </c>
@@ -16812,7 +16776,7 @@
       <c r="J355" s="9">
         <v>5938116</v>
       </c>
-      <c r="K355" s="10">
+      <c r="K355" s="9">
         <v>193423974</v>
       </c>
       <c r="L355" s="9">
@@ -16822,7 +16786,7 @@
         <v>793909821</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <v>120455203</v>
       </c>
@@ -16853,7 +16817,7 @@
       <c r="J356" s="9">
         <v>1952200</v>
       </c>
-      <c r="K356" s="10">
+      <c r="K356" s="9">
         <v>63589577</v>
       </c>
       <c r="L356" s="9">
@@ -16863,7 +16827,7 @@
         <v>736899844</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <v>120455403</v>
       </c>
@@ -16894,7 +16858,7 @@
       <c r="J357" s="9">
         <v>5846459</v>
       </c>
-      <c r="K357" s="10">
+      <c r="K357" s="9">
         <v>190438404</v>
       </c>
       <c r="L357" s="9">
@@ -16904,7 +16868,7 @@
         <v>1181702027</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>120456003</v>
       </c>
@@ -16935,7 +16899,7 @@
       <c r="J358" s="9">
         <v>3458096</v>
       </c>
-      <c r="K358" s="10">
+      <c r="K358" s="9">
         <v>112641564</v>
       </c>
       <c r="L358" s="9">
@@ -16945,7 +16909,7 @@
         <v>783209395</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <v>123460302</v>
       </c>
@@ -16976,7 +16940,7 @@
       <c r="J359" s="9">
         <v>3333502</v>
       </c>
-      <c r="K359" s="10">
+      <c r="K359" s="9">
         <v>108583127</v>
       </c>
       <c r="L359" s="9">
@@ -16986,7 +16950,7 @@
         <v>2582203599</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <v>123460504</v>
       </c>
@@ -17017,7 +16981,7 @@
       <c r="J360" s="9">
         <v>846705</v>
       </c>
-      <c r="K360" s="10">
+      <c r="K360" s="9">
         <v>27579967</v>
       </c>
       <c r="L360" s="9">
@@ -17027,7 +16991,7 @@
         <v>102796194</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A361" s="6">
         <v>123461302</v>
       </c>
@@ -17058,7 +17022,7 @@
       <c r="J361" s="9">
         <v>1133295</v>
       </c>
-      <c r="K361" s="10">
+      <c r="K361" s="9">
         <v>36915147</v>
       </c>
       <c r="L361" s="9">
@@ -17068,7 +17032,7 @@
         <v>1339769285</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>123461602</v>
       </c>
@@ -17099,7 +17063,7 @@
       <c r="J362" s="9">
         <v>3021389</v>
       </c>
-      <c r="K362" s="10">
+      <c r="K362" s="9">
         <v>98416580</v>
       </c>
       <c r="L362" s="9">
@@ -17109,7 +17073,7 @@
         <v>2942113191</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>123463603</v>
       </c>
@@ -17140,7 +17104,7 @@
       <c r="J363" s="9">
         <v>1998524</v>
       </c>
-      <c r="K363" s="10">
+      <c r="K363" s="9">
         <v>65098502</v>
       </c>
       <c r="L363" s="9">
@@ -17150,7 +17114,7 @@
         <v>1674297690</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>123463803</v>
       </c>
@@ -17181,7 +17145,7 @@
       <c r="J364" s="9">
         <v>321050</v>
       </c>
-      <c r="K364" s="10">
+      <c r="K364" s="9">
         <v>10457655</v>
       </c>
       <c r="L364" s="9">
@@ -17191,7 +17155,7 @@
         <v>250793006</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>123464502</v>
       </c>
@@ -17222,7 +17186,7 @@
       <c r="J365" s="9">
         <v>16956377</v>
       </c>
-      <c r="K365" s="10">
+      <c r="K365" s="9">
         <v>552324984</v>
       </c>
       <c r="L365" s="9">
@@ -17232,7 +17196,7 @@
         <v>9291344721</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <v>123464603</v>
       </c>
@@ -17263,7 +17227,7 @@
       <c r="J366" s="9">
         <v>1101622</v>
       </c>
-      <c r="K366" s="10">
+      <c r="K366" s="9">
         <v>35883453</v>
       </c>
       <c r="L366" s="9">
@@ -17273,7 +17237,7 @@
         <v>905798696</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A367" s="6">
         <v>123465303</v>
       </c>
@@ -17304,7 +17268,7 @@
       <c r="J367" s="9">
         <v>1407457</v>
       </c>
-      <c r="K367" s="10">
+      <c r="K367" s="9">
         <v>45845505</v>
       </c>
       <c r="L367" s="9">
@@ -17314,7 +17278,7 @@
         <v>1916513667</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A368" s="6">
         <v>123465602</v>
       </c>
@@ -17345,7 +17309,7 @@
       <c r="J368" s="9">
         <v>488081</v>
       </c>
-      <c r="K368" s="10">
+      <c r="K368" s="9">
         <v>15898404</v>
       </c>
       <c r="L368" s="9">
@@ -17355,7 +17319,7 @@
         <v>1642454317</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A369" s="6">
         <v>123465702</v>
       </c>
@@ -17386,7 +17350,7 @@
       <c r="J369" s="9">
         <v>2150581</v>
       </c>
-      <c r="K369" s="10">
+      <c r="K369" s="9">
         <v>70051498</v>
       </c>
       <c r="L369" s="9">
@@ -17396,7 +17360,7 @@
         <v>4207424213</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <v>123466103</v>
       </c>
@@ -17427,7 +17391,7 @@
       <c r="J370" s="9">
         <v>637230</v>
       </c>
-      <c r="K370" s="10">
+      <c r="K370" s="9">
         <v>20756678</v>
       </c>
       <c r="L370" s="9">
@@ -17437,7 +17401,7 @@
         <v>1663420821</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <v>123466303</v>
       </c>
@@ -17468,7 +17432,7 @@
       <c r="J371" s="9">
         <v>178157</v>
       </c>
-      <c r="K371" s="10">
+      <c r="K371" s="9">
         <v>5803160</v>
       </c>
       <c r="L371" s="9">
@@ -17478,7 +17442,7 @@
         <v>674880337</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <v>123466403</v>
       </c>
@@ -17509,7 +17473,7 @@
       <c r="J372" s="9">
         <v>127411</v>
       </c>
-      <c r="K372" s="10">
+      <c r="K372" s="9">
         <v>4150195</v>
       </c>
       <c r="L372" s="9">
@@ -17519,7 +17483,7 @@
         <v>469541651</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A373" s="6">
         <v>123467103</v>
       </c>
@@ -17550,7 +17514,7 @@
       <c r="J373" s="9">
         <v>1036870</v>
       </c>
-      <c r="K373" s="10">
+      <c r="K373" s="9">
         <v>33774267</v>
       </c>
       <c r="L373" s="9">
@@ -17560,7 +17524,7 @@
         <v>2059325244</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A374" s="6">
         <v>123467203</v>
       </c>
@@ -17591,7 +17555,7 @@
       <c r="J374" s="9">
         <v>908504</v>
       </c>
-      <c r="K374" s="10">
+      <c r="K374" s="9">
         <v>29592964</v>
       </c>
       <c r="L374" s="9">
@@ -17601,7 +17565,7 @@
         <v>1019876138</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <v>123467303</v>
       </c>
@@ -17632,7 +17596,7 @@
       <c r="J375" s="9">
         <v>1437811</v>
       </c>
-      <c r="K375" s="10">
+      <c r="K375" s="9">
         <v>46834235</v>
       </c>
       <c r="L375" s="9">
@@ -17642,7 +17606,7 @@
         <v>2539528307</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <v>123468303</v>
       </c>
@@ -17673,7 +17637,7 @@
       <c r="J376" s="9">
         <v>1460263</v>
       </c>
-      <c r="K376" s="10">
+      <c r="K376" s="9">
         <v>47565570</v>
       </c>
       <c r="L376" s="9">
@@ -17683,7 +17647,7 @@
         <v>1801766632</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <v>123468402</v>
       </c>
@@ -17714,7 +17678,7 @@
       <c r="J377" s="9">
         <v>1882707</v>
       </c>
-      <c r="K377" s="10">
+      <c r="K377" s="9">
         <v>61325961</v>
       </c>
       <c r="L377" s="9">
@@ -17724,7 +17688,7 @@
         <v>1982336040</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>123468503</v>
       </c>
@@ -17755,7 +17719,7 @@
       <c r="J378" s="9">
         <v>481960</v>
       </c>
-      <c r="K378" s="10">
+      <c r="K378" s="9">
         <v>15699023</v>
       </c>
       <c r="L378" s="9">
@@ -17765,7 +17729,7 @@
         <v>837011198</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <v>123468603</v>
       </c>
@@ -17796,7 +17760,7 @@
       <c r="J379" s="9">
         <v>236762</v>
       </c>
-      <c r="K379" s="10">
+      <c r="K379" s="9">
         <v>7712117</v>
       </c>
       <c r="L379" s="9">
@@ -17806,7 +17770,7 @@
         <v>826625561</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A380" s="6">
         <v>123469303</v>
       </c>
@@ -17837,7 +17801,7 @@
       <c r="J380" s="9">
         <v>3538115</v>
       </c>
-      <c r="K380" s="10">
+      <c r="K380" s="9">
         <v>115248046</v>
       </c>
       <c r="L380" s="9">
@@ -17847,7 +17811,7 @@
         <v>3022121874</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A381" s="6">
         <v>116471803</v>
       </c>
@@ -17878,7 +17842,7 @@
       <c r="J381" s="9">
         <v>232686</v>
       </c>
-      <c r="K381" s="10">
+      <c r="K381" s="9">
         <v>7579349</v>
       </c>
       <c r="L381" s="9">
@@ -17888,7 +17852,7 @@
         <v>654422058</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A382" s="6">
         <v>120480803</v>
       </c>
@@ -17919,7 +17883,7 @@
       <c r="J382" s="9">
         <v>815890</v>
       </c>
-      <c r="K382" s="10">
+      <c r="K382" s="9">
         <v>26576221</v>
       </c>
       <c r="L382" s="9">
@@ -17929,7 +17893,7 @@
         <v>634149724</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A383" s="6">
         <v>120481002</v>
       </c>
@@ -17960,7 +17924,7 @@
       <c r="J383" s="9">
         <v>2531291</v>
       </c>
-      <c r="K383" s="10">
+      <c r="K383" s="9">
         <v>82452476</v>
       </c>
       <c r="L383" s="9">
@@ -17970,7 +17934,7 @@
         <v>3539496564</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A384" s="6">
         <v>120483302</v>
       </c>
@@ -18001,7 +17965,7 @@
       <c r="J384" s="9">
         <v>3109292</v>
       </c>
-      <c r="K384" s="10">
+      <c r="K384" s="9">
         <v>101279870</v>
       </c>
       <c r="L384" s="9">
@@ -18011,7 +17975,7 @@
         <v>1955547152</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A385" s="6">
         <v>120484803</v>
       </c>
@@ -18042,7 +18006,7 @@
       <c r="J385" s="9">
         <v>1183369</v>
       </c>
-      <c r="K385" s="10">
+      <c r="K385" s="9">
         <v>38546221</v>
       </c>
       <c r="L385" s="9">
@@ -18052,7 +18016,7 @@
         <v>1174436141</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <v>120484903</v>
       </c>
@@ -18083,7 +18047,7 @@
       <c r="J386" s="9">
         <v>690478</v>
       </c>
-      <c r="K386" s="10">
+      <c r="K386" s="9">
         <v>22491140</v>
       </c>
       <c r="L386" s="9">
@@ -18093,7 +18057,7 @@
         <v>1314498228</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <v>120485603</v>
       </c>
@@ -18124,7 +18088,7 @@
       <c r="J387" s="9">
         <v>148683</v>
       </c>
-      <c r="K387" s="10">
+      <c r="K387" s="9">
         <v>4843094</v>
       </c>
       <c r="L387" s="9">
@@ -18134,7 +18098,7 @@
         <v>331730478</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A388" s="6">
         <v>120486003</v>
       </c>
@@ -18165,7 +18129,7 @@
       <c r="J388" s="9">
         <v>951892</v>
       </c>
-      <c r="K388" s="10">
+      <c r="K388" s="9">
         <v>31006254</v>
       </c>
       <c r="L388" s="9">
@@ -18175,7 +18139,7 @@
         <v>818616871</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A389" s="6">
         <v>120488603</v>
       </c>
@@ -18206,7 +18170,7 @@
       <c r="J389" s="9">
         <v>446176</v>
       </c>
-      <c r="K389" s="10">
+      <c r="K389" s="9">
         <v>14533420</v>
       </c>
       <c r="L389" s="9">
@@ -18216,7 +18180,7 @@
         <v>490856183</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A390" s="6">
         <v>116493503</v>
       </c>
@@ -18247,7 +18211,7 @@
       <c r="J390" s="9">
         <v>33231</v>
       </c>
-      <c r="K390" s="10">
+      <c r="K390" s="9">
         <v>1082443</v>
       </c>
       <c r="L390" s="9">
@@ -18257,7 +18221,7 @@
         <v>195752223</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <v>116495003</v>
       </c>
@@ -18288,7 +18252,7 @@
       <c r="J391" s="9">
         <v>34903</v>
       </c>
-      <c r="K391" s="10">
+      <c r="K391" s="9">
         <v>1136906</v>
       </c>
       <c r="L391" s="9">
@@ -18298,7 +18262,7 @@
         <v>338772017</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
         <v>116495103</v>
       </c>
@@ -18329,7 +18293,7 @@
       <c r="J392" s="9">
         <v>35332</v>
       </c>
-      <c r="K392" s="10">
+      <c r="K392" s="9">
         <v>1150879</v>
       </c>
       <c r="L392" s="9">
@@ -18339,7 +18303,7 @@
         <v>194323772</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <v>116496503</v>
       </c>
@@ -18370,7 +18334,7 @@
       <c r="J393" s="9">
         <v>37388</v>
       </c>
-      <c r="K393" s="10">
+      <c r="K393" s="9">
         <v>1217850</v>
       </c>
       <c r="L393" s="9">
@@ -18380,7 +18344,7 @@
         <v>288884905</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>116496603</v>
       </c>
@@ -18411,7 +18375,7 @@
       <c r="J394" s="9">
         <v>37864</v>
       </c>
-      <c r="K394" s="10">
+      <c r="K394" s="9">
         <v>1233355</v>
       </c>
       <c r="L394" s="9">
@@ -18421,7 +18385,7 @@
         <v>460912687</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <v>116498003</v>
       </c>
@@ -18452,7 +18416,7 @@
       <c r="J395" s="9">
         <v>89339</v>
       </c>
-      <c r="K395" s="10">
+      <c r="K395" s="9">
         <v>2910065</v>
       </c>
       <c r="L395" s="9">
@@ -18462,7 +18426,7 @@
         <v>296513725</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <v>115503004</v>
       </c>
@@ -18493,7 +18457,7 @@
       <c r="J396" s="9">
         <v>17388</v>
       </c>
-      <c r="K396" s="10">
+      <c r="K396" s="9">
         <v>566384</v>
       </c>
       <c r="L396" s="9">
@@ -18503,7 +18467,7 @@
         <v>135865676</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A397" s="6">
         <v>115504003</v>
       </c>
@@ -18534,7 +18498,7 @@
       <c r="J397" s="9">
         <v>8581</v>
       </c>
-      <c r="K397" s="10">
+      <c r="K397" s="9">
         <v>279511</v>
       </c>
       <c r="L397" s="9">
@@ -18544,7 +18508,7 @@
         <v>161171565</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A398" s="6">
         <v>115506003</v>
       </c>
@@ -18575,7 +18539,7 @@
       <c r="J398" s="9">
         <v>24093</v>
       </c>
-      <c r="K398" s="10">
+      <c r="K398" s="9">
         <v>784788</v>
       </c>
       <c r="L398" s="9">
@@ -18585,7 +18549,7 @@
         <v>361978028</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A399" s="6">
         <v>115508003</v>
       </c>
@@ -18616,7 +18580,7 @@
       <c r="J399" s="9">
         <v>93810</v>
       </c>
-      <c r="K399" s="10">
+      <c r="K399" s="9">
         <v>3055700</v>
       </c>
       <c r="L399" s="9">
@@ -18626,7 +18590,7 @@
         <v>442605493</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A400" s="6">
         <v>126515001</v>
       </c>
@@ -18657,7 +18621,7 @@
       <c r="J400" s="9">
         <v>33281220</v>
       </c>
-      <c r="K400" s="10">
+      <c r="K400" s="9">
         <v>1084078827</v>
       </c>
       <c r="L400" s="9">
@@ -18667,7 +18631,7 @@
         <v>34346145081</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A401" s="6">
         <v>120522003</v>
       </c>
@@ -18698,7 +18662,7 @@
       <c r="J401" s="9">
         <v>7514759</v>
       </c>
-      <c r="K401" s="10">
+      <c r="K401" s="9">
         <v>244780423</v>
       </c>
       <c r="L401" s="9">
@@ -18708,7 +18672,7 @@
         <v>540089486</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
         <v>119648303</v>
       </c>
@@ -18739,7 +18703,7 @@
       <c r="J402" s="9">
         <v>2229068</v>
       </c>
-      <c r="K402" s="10">
+      <c r="K402" s="9">
         <v>72608078</v>
       </c>
       <c r="L402" s="9">
@@ -18749,7 +18713,7 @@
         <v>476905870</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A403" s="6">
         <v>109530304</v>
       </c>
@@ -18780,7 +18744,7 @@
       <c r="J403" s="9">
         <v>13540</v>
       </c>
-      <c r="K403" s="10">
+      <c r="K403" s="9">
         <v>441042</v>
       </c>
       <c r="L403" s="9">
@@ -18790,7 +18754,7 @@
         <v>23237687</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A404" s="6">
         <v>109531304</v>
       </c>
@@ -18821,7 +18785,7 @@
       <c r="J404" s="9">
         <v>157032</v>
       </c>
-      <c r="K404" s="10">
+      <c r="K404" s="9">
         <v>5115049</v>
       </c>
       <c r="L404" s="9">
@@ -18831,7 +18795,7 @@
         <v>126832117</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A405" s="6">
         <v>109532804</v>
       </c>
@@ -18862,7 +18826,7 @@
       <c r="J405" s="9">
         <v>63784</v>
       </c>
-      <c r="K405" s="10">
+      <c r="K405" s="9">
         <v>2077655</v>
       </c>
       <c r="L405" s="9">
@@ -18872,7 +18836,7 @@
         <v>45308057</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A406" s="6">
         <v>109535504</v>
       </c>
@@ -18903,7 +18867,7 @@
       <c r="J406" s="9">
         <v>304122</v>
       </c>
-      <c r="K406" s="10">
+      <c r="K406" s="9">
         <v>9906254</v>
       </c>
       <c r="L406" s="9">
@@ -18913,7 +18877,7 @@
         <v>59165746</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A407" s="6">
         <v>109537504</v>
       </c>
@@ -18944,7 +18908,7 @@
       <c r="J407" s="9">
         <v>481546</v>
       </c>
-      <c r="K407" s="10">
+      <c r="K407" s="9">
         <v>15685537</v>
       </c>
       <c r="L407" s="9">
@@ -18954,7 +18918,7 @@
         <v>41439404</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A408" s="6">
         <v>129540803</v>
       </c>
@@ -18985,7 +18949,7 @@
       <c r="J408" s="9">
         <v>153504</v>
       </c>
-      <c r="K408" s="10">
+      <c r="K408" s="9">
         <v>5000130</v>
       </c>
       <c r="L408" s="9">
@@ -18995,7 +18959,7 @@
         <v>620320385</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A409" s="6">
         <v>129544503</v>
       </c>
@@ -19026,7 +18990,7 @@
       <c r="J409" s="9">
         <v>7663</v>
       </c>
-      <c r="K409" s="10">
+      <c r="K409" s="9">
         <v>249609</v>
       </c>
       <c r="L409" s="9">
@@ -19036,7 +19000,7 @@
         <v>121886209</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A410" s="6">
         <v>129544703</v>
       </c>
@@ -19067,7 +19031,7 @@
       <c r="J410" s="9">
         <v>10706</v>
       </c>
-      <c r="K410" s="10">
+      <c r="K410" s="9">
         <v>348730</v>
       </c>
       <c r="L410" s="9">
@@ -19077,7 +19041,7 @@
         <v>166174361</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A411" s="6">
         <v>129545003</v>
       </c>
@@ -19108,7 +19072,7 @@
       <c r="J411" s="9">
         <v>41085</v>
       </c>
-      <c r="K411" s="10">
+      <c r="K411" s="9">
         <v>1338274</v>
       </c>
       <c r="L411" s="9">
@@ -19118,7 +19082,7 @@
         <v>307641562</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A412" s="6">
         <v>129546003</v>
       </c>
@@ -19149,7 +19113,7 @@
       <c r="J412" s="9">
         <v>69199</v>
       </c>
-      <c r="K412" s="10">
+      <c r="K412" s="9">
         <v>2254039</v>
       </c>
       <c r="L412" s="9">
@@ -19159,7 +19123,7 @@
         <v>273565827</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A413" s="6">
         <v>129546103</v>
       </c>
@@ -19190,7 +19154,7 @@
       <c r="J413" s="9">
         <v>659979</v>
       </c>
-      <c r="K413" s="10">
+      <c r="K413" s="9">
         <v>21497687</v>
       </c>
       <c r="L413" s="9">
@@ -19200,7 +19164,7 @@
         <v>470746731</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A414" s="6">
         <v>129546803</v>
       </c>
@@ -19231,7 +19195,7 @@
       <c r="J414" s="9">
         <v>17425</v>
       </c>
-      <c r="K414" s="10">
+      <c r="K414" s="9">
         <v>567590</v>
       </c>
       <c r="L414" s="9">
@@ -19241,7 +19205,7 @@
         <v>111746658</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A415" s="6">
         <v>129547303</v>
       </c>
@@ -19272,7 +19236,7 @@
       <c r="J415" s="9">
         <v>42098</v>
       </c>
-      <c r="K415" s="10">
+      <c r="K415" s="9">
         <v>1371270</v>
       </c>
       <c r="L415" s="9">
@@ -19282,7 +19246,7 @@
         <v>213209301</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A416" s="6">
         <v>129547203</v>
       </c>
@@ -19313,7 +19277,7 @@
       <c r="J416" s="9">
         <v>14548</v>
       </c>
-      <c r="K416" s="10">
+      <c r="K416" s="9">
         <v>473876</v>
       </c>
       <c r="L416" s="9">
@@ -19323,7 +19287,7 @@
         <v>103658388</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A417" s="6">
         <v>129547603</v>
       </c>
@@ -19354,7 +19318,7 @@
       <c r="J417" s="9">
         <v>64976</v>
       </c>
-      <c r="K417" s="10">
+      <c r="K417" s="9">
         <v>2116482</v>
       </c>
       <c r="L417" s="9">
@@ -19364,7 +19328,7 @@
         <v>356719851</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A418" s="6">
         <v>129547803</v>
       </c>
@@ -19395,7 +19359,7 @@
       <c r="J418" s="9">
         <v>33946</v>
       </c>
-      <c r="K418" s="10">
+      <c r="K418" s="9">
         <v>1105733</v>
       </c>
       <c r="L418" s="9">
@@ -19405,7 +19369,7 @@
         <v>166900889</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A419" s="6">
         <v>129548803</v>
       </c>
@@ -19436,7 +19400,7 @@
       <c r="J419" s="9">
         <v>16412</v>
       </c>
-      <c r="K419" s="10">
+      <c r="K419" s="9">
         <v>534593</v>
       </c>
       <c r="L419" s="9">
@@ -19446,7 +19410,7 @@
         <v>136240413</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A420" s="6">
         <v>116555003</v>
       </c>
@@ -19477,7 +19441,7 @@
       <c r="J420" s="9">
         <v>260357</v>
       </c>
-      <c r="K420" s="10">
+      <c r="K420" s="9">
         <v>8480684</v>
       </c>
       <c r="L420" s="9">
@@ -19487,7 +19451,7 @@
         <v>352393747</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <v>116557103</v>
       </c>
@@ -19518,7 +19482,7 @@
       <c r="J421" s="9">
         <v>92063</v>
       </c>
-      <c r="K421" s="10">
+      <c r="K421" s="9">
         <v>2998795</v>
       </c>
       <c r="L421" s="9">
@@ -19528,7 +19492,7 @@
         <v>503062751</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A422" s="6">
         <v>108561003</v>
       </c>
@@ -19559,7 +19523,7 @@
       <c r="J422" s="9">
         <v>22437</v>
       </c>
-      <c r="K422" s="10">
+      <c r="K422" s="9">
         <v>730847</v>
       </c>
       <c r="L422" s="9">
@@ -19569,7 +19533,7 @@
         <v>125298865</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A423" s="6">
         <v>108561803</v>
       </c>
@@ -19600,7 +19564,7 @@
       <c r="J423" s="9">
         <v>27122</v>
       </c>
-      <c r="K423" s="10">
+      <c r="K423" s="9">
         <v>883453</v>
       </c>
       <c r="L423" s="9">
@@ -19610,7 +19574,7 @@
         <v>179481412</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A424" s="6">
         <v>108565203</v>
       </c>
@@ -19641,7 +19605,7 @@
       <c r="J424" s="9">
         <v>25444</v>
       </c>
-      <c r="K424" s="10">
+      <c r="K424" s="9">
         <v>828795</v>
       </c>
       <c r="L424" s="9">
@@ -19651,7 +19615,7 @@
         <v>127858804</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A425" s="6">
         <v>108565503</v>
       </c>
@@ -19682,7 +19646,7 @@
       <c r="J425" s="9">
         <v>11120</v>
       </c>
-      <c r="K425" s="10">
+      <c r="K425" s="9">
         <v>362215</v>
       </c>
       <c r="L425" s="9">
@@ -19692,7 +19656,7 @@
         <v>168427990</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A426" s="6">
         <v>108566303</v>
       </c>
@@ -19723,7 +19687,7 @@
       <c r="J426" s="9">
         <v>9961</v>
       </c>
-      <c r="K426" s="10">
+      <c r="K426" s="9">
         <v>324463</v>
       </c>
       <c r="L426" s="9">
@@ -19733,7 +19697,7 @@
         <v>138761230</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A427" s="6">
         <v>108567004</v>
       </c>
@@ -19764,7 +19728,7 @@
       <c r="J427" s="9">
         <v>37107</v>
       </c>
-      <c r="K427" s="10">
+      <c r="K427" s="9">
         <v>1208697</v>
       </c>
       <c r="L427" s="9">
@@ -19774,7 +19738,7 @@
         <v>52186911</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A428" s="6">
         <v>108567204</v>
       </c>
@@ -19805,7 +19769,7 @@
       <c r="J428" s="9">
         <v>20209</v>
       </c>
-      <c r="K428" s="10">
+      <c r="K428" s="9">
         <v>658274</v>
       </c>
       <c r="L428" s="9">
@@ -19815,7 +19779,7 @@
         <v>66081474</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A429" s="6">
         <v>108567404</v>
       </c>
@@ -19846,7 +19810,7 @@
       <c r="J429" s="9">
         <v>13537</v>
       </c>
-      <c r="K429" s="10">
+      <c r="K429" s="9">
         <v>440945</v>
       </c>
       <c r="L429" s="9">
@@ -19856,7 +19820,7 @@
         <v>65490340</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A430" s="6">
         <v>108567703</v>
       </c>
@@ -19887,7 +19851,7 @@
       <c r="J430" s="9">
         <v>59325</v>
       </c>
-      <c r="K430" s="10">
+      <c r="K430" s="9">
         <v>1932410</v>
       </c>
       <c r="L430" s="9">
@@ -19897,7 +19861,7 @@
         <v>410264136</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A431" s="6">
         <v>108568404</v>
       </c>
@@ -19928,7 +19892,7 @@
       <c r="J431" s="9">
         <v>7860</v>
       </c>
-      <c r="K431" s="10">
+      <c r="K431" s="9">
         <v>256026</v>
       </c>
       <c r="L431" s="9">
@@ -19938,7 +19902,7 @@
         <v>45419683</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A432" s="6">
         <v>108569103</v>
       </c>
@@ -19969,7 +19933,7 @@
       <c r="J432" s="9">
         <v>29067</v>
       </c>
-      <c r="K432" s="10">
+      <c r="K432" s="9">
         <v>946808</v>
       </c>
       <c r="L432" s="9">
@@ -19979,7 +19943,7 @@
         <v>175486698</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A433" s="6">
         <v>117576303</v>
       </c>
@@ -20010,7 +19974,7 @@
       <c r="J433" s="9">
         <v>59439</v>
       </c>
-      <c r="K433" s="10">
+      <c r="K433" s="9">
         <v>1936124</v>
       </c>
       <c r="L433" s="9">
@@ -20020,7 +19984,7 @@
         <v>141419096</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A434" s="6">
         <v>119581003</v>
       </c>
@@ -20051,7 +20015,7 @@
       <c r="J434" s="9">
         <v>1203437</v>
       </c>
-      <c r="K434" s="10">
+      <c r="K434" s="9">
         <v>39199902</v>
       </c>
       <c r="L434" s="9">
@@ -20061,7 +20025,7 @@
         <v>137436844</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A435" s="6">
         <v>119582503</v>
       </c>
@@ -20092,7 +20056,7 @@
       <c r="J435" s="9">
         <v>210309</v>
       </c>
-      <c r="K435" s="10">
+      <c r="K435" s="9">
         <v>6850456</v>
       </c>
       <c r="L435" s="9">
@@ -20102,7 +20066,7 @@
         <v>227230716</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A436" s="6">
         <v>119583003</v>
       </c>
@@ -20133,7 +20097,7 @@
       <c r="J436" s="9">
         <v>162826</v>
       </c>
-      <c r="K436" s="10">
+      <c r="K436" s="9">
         <v>5303779</v>
       </c>
       <c r="L436" s="9">
@@ -20143,7 +20107,7 @@
         <v>122808388</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A437" s="6">
         <v>119584503</v>
       </c>
@@ -20174,7 +20138,7 @@
       <c r="J437" s="9">
         <v>2339542</v>
       </c>
-      <c r="K437" s="10">
+      <c r="K437" s="9">
         <v>76206580</v>
       </c>
       <c r="L437" s="9">
@@ -20184,7 +20148,7 @@
         <v>248795435</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A438" s="6">
         <v>119584603</v>
       </c>
@@ -20215,7 +20179,7 @@
       <c r="J438" s="9">
         <v>214095</v>
       </c>
-      <c r="K438" s="10">
+      <c r="K438" s="9">
         <v>6973779</v>
       </c>
       <c r="L438" s="9">
@@ -20225,7 +20189,7 @@
         <v>289506063</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A439" s="6">
         <v>119586503</v>
       </c>
@@ -20256,7 +20220,7 @@
       <c r="J439" s="9">
         <v>686262</v>
       </c>
-      <c r="K439" s="10">
+      <c r="K439" s="9">
         <v>22353811</v>
       </c>
       <c r="L439" s="9">
@@ -20266,7 +20230,7 @@
         <v>100781941</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A440" s="6">
         <v>117596003</v>
       </c>
@@ -20297,7 +20261,7 @@
       <c r="J440" s="9">
         <v>2413717</v>
       </c>
-      <c r="K440" s="10">
+      <c r="K440" s="9">
         <v>78622704</v>
       </c>
       <c r="L440" s="9">
@@ -20307,7 +20271,7 @@
         <v>206421525</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A441" s="6">
         <v>117597003</v>
       </c>
@@ -20338,7 +20302,7 @@
       <c r="J441" s="9">
         <v>548233</v>
       </c>
-      <c r="K441" s="10">
+      <c r="K441" s="9">
         <v>17857752</v>
       </c>
       <c r="L441" s="9">
@@ -20348,7 +20312,7 @@
         <v>314240694</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A442" s="6">
         <v>117598503</v>
       </c>
@@ -20379,7 +20343,7 @@
       <c r="J442" s="9">
         <v>396873</v>
       </c>
-      <c r="K442" s="10">
+      <c r="K442" s="9">
         <v>12927459</v>
       </c>
       <c r="L442" s="9">
@@ -20389,7 +20353,7 @@
         <v>249151830</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A443" s="6">
         <v>116604003</v>
       </c>
@@ -20420,7 +20384,7 @@
       <c r="J443" s="9">
         <v>206100</v>
       </c>
-      <c r="K443" s="10">
+      <c r="K443" s="9">
         <v>6713355</v>
       </c>
       <c r="L443" s="9">
@@ -20430,7 +20394,7 @@
         <v>529727543</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A444" s="6">
         <v>116605003</v>
       </c>
@@ -20461,7 +20425,7 @@
       <c r="J444" s="9">
         <v>70183</v>
       </c>
-      <c r="K444" s="10">
+      <c r="K444" s="9">
         <v>2286091</v>
       </c>
       <c r="L444" s="9">
@@ -20471,7 +20435,7 @@
         <v>352502484</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A445" s="6">
         <v>106611303</v>
       </c>
@@ -20502,7 +20466,7 @@
       <c r="J445" s="9">
         <v>47551</v>
       </c>
-      <c r="K445" s="10">
+      <c r="K445" s="9">
         <v>1548893</v>
       </c>
       <c r="L445" s="9">
@@ -20512,7 +20476,7 @@
         <v>197155254</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A446" s="6">
         <v>106612203</v>
       </c>
@@ -20543,7 +20507,7 @@
       <c r="J446" s="9">
         <v>78901</v>
       </c>
-      <c r="K446" s="10">
+      <c r="K446" s="9">
         <v>2570065</v>
       </c>
       <c r="L446" s="9">
@@ -20553,7 +20517,7 @@
         <v>284367132</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A447" s="6">
         <v>106616203</v>
       </c>
@@ -20584,7 +20548,7 @@
       <c r="J447" s="9">
         <v>34956</v>
       </c>
-      <c r="K447" s="10">
+      <c r="K447" s="9">
         <v>1138632</v>
       </c>
       <c r="L447" s="9">
@@ -20594,7 +20558,7 @@
         <v>246283693</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A448" s="6">
         <v>106617203</v>
       </c>
@@ -20625,7 +20589,7 @@
       <c r="J448" s="9">
         <v>53062</v>
       </c>
-      <c r="K448" s="10">
+      <c r="K448" s="9">
         <v>1728404</v>
       </c>
       <c r="L448" s="9">
@@ -20635,7 +20599,7 @@
         <v>229409876</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A449" s="6">
         <v>106618603</v>
       </c>
@@ -20666,7 +20630,7 @@
       <c r="J449" s="9">
         <v>17263</v>
       </c>
-      <c r="K449" s="10">
+      <c r="K449" s="9">
         <v>562313</v>
       </c>
       <c r="L449" s="9">
@@ -20676,7 +20640,7 @@
         <v>115040646</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A450" s="6">
         <v>105628302</v>
       </c>
@@ -20707,7 +20671,7 @@
       <c r="J450" s="9">
         <v>2090851</v>
       </c>
-      <c r="K450" s="10">
+      <c r="K450" s="9">
         <v>68105896</v>
       </c>
       <c r="L450" s="9">
@@ -20717,7 +20681,7 @@
         <v>708112898</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A451" s="6">
         <v>101630504</v>
       </c>
@@ -20748,7 +20712,7 @@
       <c r="J451" s="9">
         <v>43637</v>
       </c>
-      <c r="K451" s="10">
+      <c r="K451" s="9">
         <v>1421401</v>
       </c>
       <c r="L451" s="9">
@@ -20758,7 +20722,7 @@
         <v>129226928</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A452" s="6">
         <v>101630903</v>
       </c>
@@ -20789,7 +20753,7 @@
       <c r="J452" s="9">
         <v>11909</v>
       </c>
-      <c r="K452" s="10">
+      <c r="K452" s="9">
         <v>387915</v>
       </c>
       <c r="L452" s="9">
@@ -20799,7 +20763,7 @@
         <v>218748457</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A453" s="6">
         <v>101631003</v>
       </c>
@@ -20830,7 +20794,7 @@
       <c r="J453" s="9">
         <v>28249</v>
       </c>
-      <c r="K453" s="10">
+      <c r="K453" s="9">
         <v>920163</v>
       </c>
       <c r="L453" s="9">
@@ -20840,7 +20804,7 @@
         <v>218002305</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A454" s="6">
         <v>101631203</v>
       </c>
@@ -20871,7 +20835,7 @@
       <c r="J454" s="9">
         <v>48295</v>
       </c>
-      <c r="K454" s="10">
+      <c r="K454" s="9">
         <v>1573127</v>
       </c>
       <c r="L454" s="9">
@@ -20881,7 +20845,7 @@
         <v>252704873</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A455" s="6">
         <v>101631503</v>
       </c>
@@ -20912,7 +20876,7 @@
       <c r="J455" s="9">
         <v>6153</v>
       </c>
-      <c r="K455" s="10">
+      <c r="K455" s="9">
         <v>200423</v>
       </c>
       <c r="L455" s="9">
@@ -20922,7 +20886,7 @@
         <v>163779218</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A456" s="6">
         <v>101631703</v>
       </c>
@@ -20953,7 +20917,7 @@
       <c r="J456" s="9">
         <v>310092</v>
       </c>
-      <c r="K456" s="10">
+      <c r="K456" s="9">
         <v>10100717</v>
       </c>
       <c r="L456" s="9">
@@ -20963,7 +20927,7 @@
         <v>1542167367</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A457" s="6">
         <v>101631803</v>
       </c>
@@ -20994,7 +20958,7 @@
       <c r="J457" s="9">
         <v>7071</v>
       </c>
-      <c r="K457" s="10">
+      <c r="K457" s="9">
         <v>230326</v>
       </c>
       <c r="L457" s="9">
@@ -21004,7 +20968,7 @@
         <v>242785782</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A458" s="6">
         <v>101631903</v>
       </c>
@@ -21035,7 +20999,7 @@
       <c r="J458" s="9">
         <v>30682</v>
       </c>
-      <c r="K458" s="10">
+      <c r="K458" s="9">
         <v>999414</v>
       </c>
       <c r="L458" s="9">
@@ -21045,7 +21009,7 @@
         <v>281166014</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A459" s="6">
         <v>101632403</v>
       </c>
@@ -21076,7 +21040,7 @@
       <c r="J459" s="9">
         <v>35800</v>
       </c>
-      <c r="K459" s="10">
+      <c r="K459" s="9">
         <v>1166124</v>
       </c>
       <c r="L459" s="9">
@@ -21086,7 +21050,7 @@
         <v>239714992</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A460" s="6">
         <v>101633903</v>
       </c>
@@ -21117,7 +21081,7 @@
       <c r="J460" s="9">
         <v>178648</v>
       </c>
-      <c r="K460" s="10">
+      <c r="K460" s="9">
         <v>5819153</v>
       </c>
       <c r="L460" s="9">
@@ -21127,7 +21091,7 @@
         <v>384944649</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A461" s="6">
         <v>101636503</v>
       </c>
@@ -21158,7 +21122,7 @@
       <c r="J461" s="9">
         <v>1233872</v>
       </c>
-      <c r="K461" s="10">
+      <c r="K461" s="9">
         <v>40191270</v>
       </c>
       <c r="L461" s="9">
@@ -21168,7 +21132,7 @@
         <v>1555663609</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A462" s="6">
         <v>101637002</v>
       </c>
@@ -21199,7 +21163,7 @@
       <c r="J462" s="9">
         <v>111603</v>
       </c>
-      <c r="K462" s="10">
+      <c r="K462" s="9">
         <v>3635277</v>
       </c>
       <c r="L462" s="9">
@@ -21209,7 +21173,7 @@
         <v>629105376</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A463" s="6">
         <v>101638003</v>
       </c>
@@ -21240,7 +21204,7 @@
       <c r="J463" s="9">
         <v>187119</v>
       </c>
-      <c r="K463" s="10">
+      <c r="K463" s="9">
         <v>6095081</v>
       </c>
       <c r="L463" s="9">
@@ -21250,7 +21214,7 @@
         <v>814611714</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A464" s="6">
         <v>101638803</v>
       </c>
@@ -21281,7 +21245,7 @@
       <c r="J464" s="9">
         <v>102363</v>
       </c>
-      <c r="K464" s="10">
+      <c r="K464" s="9">
         <v>3334300</v>
       </c>
       <c r="L464" s="9">
@@ -21291,7 +21255,7 @@
         <v>316114194</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A465" s="6">
         <v>119648703</v>
       </c>
@@ -21322,7 +21286,7 @@
       <c r="J465" s="9">
         <v>1784559</v>
       </c>
-      <c r="K465" s="10">
+      <c r="K465" s="9">
         <v>58128958</v>
       </c>
       <c r="L465" s="9">
@@ -21332,7 +21296,7 @@
         <v>445521939</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A466" s="6">
         <v>119648903</v>
       </c>
@@ -21363,7 +21327,7 @@
       <c r="J466" s="9">
         <v>525938</v>
       </c>
-      <c r="K466" s="10">
+      <c r="K466" s="9">
         <v>17131531</v>
       </c>
       <c r="L466" s="9">
@@ -21373,7 +21337,7 @@
         <v>301410286</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A467" s="6">
         <v>107650603</v>
       </c>
@@ -21404,7 +21368,7 @@
       <c r="J467" s="9">
         <v>52968</v>
       </c>
-      <c r="K467" s="10">
+      <c r="K467" s="9">
         <v>1725342</v>
       </c>
       <c r="L467" s="9">
@@ -21414,7 +21378,7 @@
         <v>484555271</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A468" s="6">
         <v>107650703</v>
       </c>
@@ -21445,7 +21409,7 @@
       <c r="J468" s="9">
         <v>39520</v>
       </c>
-      <c r="K468" s="10">
+      <c r="K468" s="9">
         <v>1287296</v>
       </c>
       <c r="L468" s="9">
@@ -21455,7 +21419,7 @@
         <v>385317176</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A469" s="6">
         <v>107651603</v>
       </c>
@@ -21486,7 +21450,7 @@
       <c r="J469" s="9">
         <v>47812</v>
       </c>
-      <c r="K469" s="10">
+      <c r="K469" s="9">
         <v>1557394</v>
       </c>
       <c r="L469" s="9">
@@ -21496,7 +21460,7 @@
         <v>355346291</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A470" s="6">
         <v>107652603</v>
       </c>
@@ -21527,7 +21491,7 @@
       <c r="J470" s="9">
         <v>495379</v>
       </c>
-      <c r="K470" s="10">
+      <c r="K470" s="9">
         <v>16136124</v>
       </c>
       <c r="L470" s="9">
@@ -21537,7 +21501,7 @@
         <v>1183178782</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A471" s="6">
         <v>107653102</v>
       </c>
@@ -21568,7 +21532,7 @@
       <c r="J471" s="9">
         <v>129124</v>
       </c>
-      <c r="K471" s="10">
+      <c r="K471" s="9">
         <v>4205993</v>
       </c>
       <c r="L471" s="9">
@@ -21578,7 +21542,7 @@
         <v>954454004</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A472" s="6">
         <v>107653203</v>
       </c>
@@ -21609,7 +21573,7 @@
       <c r="J472" s="9">
         <v>49240</v>
       </c>
-      <c r="K472" s="10">
+      <c r="K472" s="9">
         <v>1603909</v>
       </c>
       <c r="L472" s="9">
@@ -21619,7 +21583,7 @@
         <v>588001147</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A473" s="6">
         <v>107653802</v>
       </c>
@@ -21650,7 +21614,7 @@
       <c r="J473" s="9">
         <v>338014</v>
       </c>
-      <c r="K473" s="10">
+      <c r="K473" s="9">
         <v>11010228</v>
       </c>
       <c r="L473" s="9">
@@ -21660,7 +21624,7 @@
         <v>1383156214</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A474" s="6">
         <v>107654103</v>
       </c>
@@ -21691,7 +21655,7 @@
       <c r="J474" s="9">
         <v>8200</v>
       </c>
-      <c r="K474" s="10">
+      <c r="K474" s="9">
         <v>267101</v>
       </c>
       <c r="L474" s="9">
@@ -21701,7 +21665,7 @@
         <v>161062333</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A475" s="6">
         <v>107654403</v>
       </c>
@@ -21732,7 +21696,7 @@
       <c r="J475" s="9">
         <v>189009</v>
       </c>
-      <c r="K475" s="10">
+      <c r="K475" s="9">
         <v>6156645</v>
       </c>
       <c r="L475" s="9">
@@ -21742,7 +21706,7 @@
         <v>696164158</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A476" s="6">
         <v>107654903</v>
       </c>
@@ -21773,7 +21737,7 @@
       <c r="J476" s="9">
         <v>175321</v>
       </c>
-      <c r="K476" s="10">
+      <c r="K476" s="9">
         <v>5710782</v>
       </c>
       <c r="L476" s="9">
@@ -21783,7 +21747,7 @@
         <v>478849080</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A477" s="6">
         <v>107655803</v>
       </c>
@@ -21814,7 +21778,7 @@
       <c r="J477" s="9">
         <v>6249</v>
       </c>
-      <c r="K477" s="10">
+      <c r="K477" s="9">
         <v>203550</v>
       </c>
       <c r="L477" s="9">
@@ -21824,7 +21788,7 @@
         <v>116741836</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A478" s="6">
         <v>107655903</v>
       </c>
@@ -21855,7 +21819,7 @@
       <c r="J478" s="9">
         <v>178259</v>
       </c>
-      <c r="K478" s="10">
+      <c r="K478" s="9">
         <v>5806482</v>
       </c>
       <c r="L478" s="9">
@@ -21865,7 +21829,7 @@
         <v>422183213</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A479" s="6">
         <v>107656303</v>
       </c>
@@ -21896,7 +21860,7 @@
       <c r="J479" s="9">
         <v>26505</v>
       </c>
-      <c r="K479" s="10">
+      <c r="K479" s="9">
         <v>863355</v>
       </c>
       <c r="L479" s="9">
@@ -21906,7 +21870,7 @@
         <v>300824789</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A480" s="6">
         <v>107656502</v>
       </c>
@@ -21937,7 +21901,7 @@
       <c r="J480" s="9">
         <v>362770</v>
       </c>
-      <c r="K480" s="10">
+      <c r="K480" s="9">
         <v>11816612</v>
       </c>
       <c r="L480" s="9">
@@ -21947,7 +21911,7 @@
         <v>1272636012</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A481" s="6">
         <v>107657103</v>
       </c>
@@ -21978,7 +21942,7 @@
       <c r="J481" s="9">
         <v>122342</v>
       </c>
-      <c r="K481" s="10">
+      <c r="K481" s="9">
         <v>3985081</v>
       </c>
       <c r="L481" s="9">
@@ -21988,7 +21952,7 @@
         <v>938320841</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A482" s="6">
         <v>107657503</v>
       </c>
@@ -22019,7 +21983,7 @@
       <c r="J482" s="9">
         <v>58182</v>
       </c>
-      <c r="K482" s="10">
+      <c r="K482" s="9">
         <v>1895179</v>
       </c>
       <c r="L482" s="9">
@@ -22029,7 +21993,7 @@
         <v>324259513</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A483" s="6">
         <v>107658903</v>
       </c>
@@ -22060,7 +22024,7 @@
       <c r="J483" s="9">
         <v>69624</v>
       </c>
-      <c r="K483" s="10">
+      <c r="K483" s="9">
         <v>2267883</v>
       </c>
       <c r="L483" s="9">
@@ -22070,7 +22034,7 @@
         <v>366334301</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A484" s="6">
         <v>119665003</v>
       </c>
@@ -22101,7 +22065,7 @@
       <c r="J484" s="9">
         <v>127377</v>
       </c>
-      <c r="K484" s="10">
+      <c r="K484" s="9">
         <v>4149088</v>
       </c>
       <c r="L484" s="9">
@@ -22111,7 +22075,7 @@
         <v>228163111</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A485" s="6">
         <v>118667503</v>
       </c>
@@ -22142,7 +22106,7 @@
       <c r="J485" s="9">
         <v>192187</v>
       </c>
-      <c r="K485" s="10">
+      <c r="K485" s="9">
         <v>6260163</v>
       </c>
       <c r="L485" s="9">
@@ -22152,7 +22116,7 @@
         <v>482887585</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A486" s="6">
         <v>112671303</v>
       </c>
@@ -22183,7 +22147,7 @@
       <c r="J486" s="9">
         <v>503770</v>
       </c>
-      <c r="K486" s="10">
+      <c r="K486" s="9">
         <v>16409446</v>
       </c>
       <c r="L486" s="9">
@@ -22193,7 +22157,7 @@
         <v>1300222879</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A487" s="6">
         <v>112671603</v>
       </c>
@@ -22224,7 +22188,7 @@
       <c r="J487" s="9">
         <v>568298</v>
       </c>
-      <c r="K487" s="10">
+      <c r="K487" s="9">
         <v>18511336</v>
       </c>
       <c r="L487" s="9">
@@ -22234,7 +22198,7 @@
         <v>1451318151</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A488" s="6">
         <v>112671803</v>
       </c>
@@ -22265,7 +22229,7 @@
       <c r="J488" s="9">
         <v>106905</v>
       </c>
-      <c r="K488" s="10">
+      <c r="K488" s="9">
         <v>3482248</v>
       </c>
       <c r="L488" s="9">
@@ -22275,7 +22239,7 @@
         <v>681293061</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A489" s="6">
         <v>112672203</v>
       </c>
@@ -22306,7 +22270,7 @@
       <c r="J489" s="9">
         <v>91302</v>
       </c>
-      <c r="K489" s="10">
+      <c r="K489" s="9">
         <v>2974007</v>
       </c>
       <c r="L489" s="9">
@@ -22316,7 +22280,7 @@
         <v>552051090</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A490" s="6">
         <v>112672803</v>
       </c>
@@ -22347,7 +22311,7 @@
       <c r="J490" s="9">
         <v>85043</v>
       </c>
-      <c r="K490" s="10">
+      <c r="K490" s="9">
         <v>2770130</v>
       </c>
       <c r="L490" s="9">
@@ -22357,7 +22321,7 @@
         <v>355115678</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A491" s="6">
         <v>112674403</v>
       </c>
@@ -22388,7 +22352,7 @@
       <c r="J491" s="9">
         <v>105695</v>
       </c>
-      <c r="K491" s="10">
+      <c r="K491" s="9">
         <v>3442834</v>
       </c>
       <c r="L491" s="9">
@@ -22398,7 +22362,7 @@
         <v>717404610</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A492" s="6">
         <v>115674603</v>
       </c>
@@ -22429,7 +22393,7 @@
       <c r="J492" s="9">
         <v>194076</v>
       </c>
-      <c r="K492" s="10">
+      <c r="K492" s="9">
         <v>6321694</v>
       </c>
       <c r="L492" s="9">
@@ -22439,7 +22403,7 @@
         <v>765375325</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A493" s="6">
         <v>112675503</v>
       </c>
@@ -22470,7 +22434,7 @@
       <c r="J493" s="9">
         <v>242787</v>
       </c>
-      <c r="K493" s="10">
+      <c r="K493" s="9">
         <v>7908371</v>
       </c>
       <c r="L493" s="9">
@@ -22480,7 +22444,7 @@
         <v>1057931485</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A494" s="6">
         <v>112676203</v>
       </c>
@@ -22511,7 +22475,7 @@
       <c r="J494" s="9">
         <v>389915</v>
       </c>
-      <c r="K494" s="10">
+      <c r="K494" s="9">
         <v>12700814</v>
       </c>
       <c r="L494" s="9">
@@ -22521,7 +22485,7 @@
         <v>567692115</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A495" s="6">
         <v>112676403</v>
       </c>
@@ -22552,7 +22516,7 @@
       <c r="J495" s="9">
         <v>406656</v>
       </c>
-      <c r="K495" s="10">
+      <c r="K495" s="9">
         <v>13246124</v>
       </c>
       <c r="L495" s="9">
@@ -22562,7 +22526,7 @@
         <v>858499345</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A496" s="6">
         <v>112676503</v>
       </c>
@@ -22593,7 +22557,7 @@
       <c r="J496" s="9">
         <v>394420</v>
       </c>
-      <c r="K496" s="10">
+      <c r="K496" s="9">
         <v>12847557</v>
       </c>
       <c r="L496" s="9">
@@ -22603,7 +22567,7 @@
         <v>707943258</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A497" s="6">
         <v>112676703</v>
       </c>
@@ -22634,7 +22598,7 @@
       <c r="J497" s="9">
         <v>196887</v>
       </c>
-      <c r="K497" s="10">
+      <c r="K497" s="9">
         <v>6413257</v>
       </c>
       <c r="L497" s="9">
@@ -22644,7 +22608,7 @@
         <v>836516229</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A498" s="6">
         <v>115219002</v>
       </c>
@@ -22675,7 +22639,7 @@
       <c r="J498" s="9">
         <v>397867</v>
       </c>
-      <c r="K498" s="10">
+      <c r="K498" s="9">
         <v>12959837</v>
       </c>
       <c r="L498" s="9">
@@ -22685,7 +22649,7 @@
         <v>2079424013</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A499" s="6">
         <v>112678503</v>
       </c>
@@ -22716,7 +22680,7 @@
       <c r="J499" s="9">
         <v>90626</v>
       </c>
-      <c r="K499" s="10">
+      <c r="K499" s="9">
         <v>2951987</v>
       </c>
       <c r="L499" s="9">
@@ -22726,7 +22690,7 @@
         <v>623984083</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A500" s="6">
         <v>112679002</v>
       </c>
@@ -22757,7 +22721,7 @@
       <c r="J500" s="9">
         <v>110306</v>
       </c>
-      <c r="K500" s="10">
+      <c r="K500" s="9">
         <v>3593029</v>
       </c>
       <c r="L500" s="9">
@@ -22767,7 +22731,7 @@
         <v>661373200</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A501" s="6">
         <v>112679403</v>
       </c>
@@ -22798,7 +22762,7 @@
       <c r="J501" s="9">
         <v>610094</v>
       </c>
-      <c r="K501" s="10">
+      <c r="K501" s="9">
         <v>19872769</v>
       </c>
       <c r="L501" s="9">
@@ -22808,10 +22772,10 @@
         <v>1055885396</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A503" s="12"/>
-      <c r="B503" s="13"/>
-      <c r="C503" s="13"/>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A503" s="11"/>
+      <c r="B503" s="12"/>
+      <c r="C503" s="12"/>
       <c r="D503" s="8">
         <f t="shared" ref="D503:M503" si="0">SUM(D2:D501)</f>
         <v>6015333</v>
@@ -22872,6 +22836,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="a7af8e22-4aad-4637-bdfe-8881feb25ebc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A4E9D8B9AE294BB8664582FC3229C4" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a2d9ea174ca71e18204fe09cb4b5ba8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="a7af8e22-4aad-4637-bdfe-8881feb25ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e1d1e180fd2d7c84c724596e328884d" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -23028,39 +23017,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="a7af8e22-4aad-4637-bdfe-8881feb25ebc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7830A56E-E778-4736-BD4A-F23E7C9CD7C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DCEC639-0830-4762-BE85-ACB5D2E1043B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a7af8e22-4aad-4637-bdfe-8881feb25ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1436D9A6-63BD-4C91-96FF-713075C4A3B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1436D9A6-63BD-4C91-96FF-713075C4A3B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DCEC639-0830-4762-BE85-ACB5D2E1043B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7830A56E-E778-4736-BD4A-F23E7C9CD7C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a7af8e22-4aad-4637-bdfe-8881feb25ebc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>